--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E329"/>
+  <dimension ref="A1:E324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6046 +447,4783 @@
       </c>
       <c r="D1" s="0" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
           <t>visited</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>description</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>-48.50891579</v>
+        <v>-52.2743974545032</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-27.75870092</v>
+        <v>-15.8639301825605</v>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88066260</t>
+          <t>AVISO IMPORTANTE NA DESCRIÇÃO</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>NESTA CÉLULA EXISTE UMA GRANDE VARIAÇÃO DE CASSAS COM QUADRA E LOTE E NUMERAÇÃO
+   É IMPORTANTE QUE SEJA CADASTRADO NUMERAÇÃO E QUADRA E LOTE EM TODOS OS HP'S</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>-48.51068471</v>
+        <v>-52.26563</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-27.75198125</v>
+        <v>-15.887289</v>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>SN - Local EM CONSTRUÇÃO</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>-48.50880314</v>
+        <v>-52.2656019116496</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-27.75874394</v>
+        <v>-15.8852963119403</v>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88066260</t>
+          <t>1946</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>-48.51064816</v>
+        <v>-52.2656494696012</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-27.75181212</v>
+        <v>-15.8851711302573</v>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88066355</t>
+          <t>1958</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>-48.51074237</v>
+        <v>-52.2657228403471</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-27.75722428</v>
+        <v>-15.885048249956</v>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88066260</t>
+          <t>1962</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>-48.50867171</v>
+        <v>-52.2658008593579</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-27.75875522</v>
+        <v>-15.884932829453</v>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88066260</t>
+          <t>366</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>-48.51079501</v>
+        <v>-52.2655825807368</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-27.757375</v>
+        <v>-15.8846550520809</v>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88066260</t>
+          <t>404</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>-48.51082385</v>
+        <v>-52.2655340919678</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-27.75513434</v>
+        <v>-15.8845887802281</v>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>105 2hp</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88066260</t>
+          <t>416 - 4hp</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>-48.51079468</v>
+        <v>-52.2654147830892</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-27.75301913</v>
+        <v>-15.8845505923256</v>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>108 2hp</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88066260</t>
+          <t>424</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>-48.50869451</v>
+        <v>-52.2660522225262</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-27.75332474</v>
+        <v>-15.884829606606</v>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88066260</t>
+          <t>357</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>-48.51085234</v>
+        <v>-52.2728729317628</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-27.75176554</v>
+        <v>-15.8648258951133</v>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88066355</t>
+          <t>436</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>-48.51090197</v>
+        <v>-52.2731145457335</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-27.75692462</v>
+        <v>-15.8647764624666</v>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88066260</t>
+          <t>413</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>-48.51095393</v>
+        <v>-52.272563</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-27.75510852</v>
+        <v>-15.866931</v>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>Q12 C23</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>-48.50893825</v>
+        <v>-52.272778</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-27.75340307</v>
+        <v>-15.866763</v>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>118 3hp</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>Q12 L11</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>-48.51087112</v>
+        <v>-52.272342</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>-27.7528147</v>
+        <v>-15.866549</v>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>118 pc hp</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>371 Q13 L11</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>-48.51073433</v>
+        <v>-52.272422</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>-27.75231445</v>
+        <v>-15.866687</v>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>12 3hp</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>351 Q13 L9</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>-48.51091102</v>
+        <v>-52.272863</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>-27.75722428</v>
+        <v>-15.865406</v>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>537 Q18  c1</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>-48.51085838</v>
+        <v>-52.272507</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-27.75681217</v>
+        <v>-15.864705</v>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>Q18 L10</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>-48.5109318</v>
+        <v>-52.272194</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>-27.75736284</v>
+        <v>-15.864841</v>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>121 2hp</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>598 Q19 L10</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>-48.5108614</v>
+        <v>-52.264489</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-27.75228092</v>
+        <v>-15.88623</v>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>Q2 l14</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>-48.51099316</v>
+        <v>-52.271474</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-27.751778</v>
+        <v>-15.864848</v>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>612 Q20 C14</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>-48.5109593</v>
+        <v>-52.271932</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-27.75223345</v>
+        <v>-15.865983</v>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>123 b</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>445 Q20 L16</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>-48.51109978</v>
+        <v>-52.271839</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-27.75507856</v>
+        <v>-15.865803</v>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>465 Q20 L18</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>-48.50835923</v>
+        <v>-52.271129</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-27.75338942</v>
+        <v>-15.864771</v>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>129 2hp</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>Q21 C31</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>-48.51096835</v>
+        <v>-52.271407</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>-27.75298679</v>
+        <v>-15.865682</v>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>506 Q21 L17</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>-48.50845914</v>
+        <v>-52.270786</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-27.75350336</v>
+        <v>-15.864805</v>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>Q21 L18</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>-48.51103775</v>
+        <v>-52.26436</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>-27.75734177</v>
+        <v>-15.886491</v>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>133 2hp</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>Q3 l07</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>-48.51111017</v>
+        <v>-52.264287</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>-27.75131632</v>
+        <v>-15.886411</v>
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>134 2hp</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>Q3 l08</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>-48.51107899</v>
+        <v>-52.264187</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>-27.75691097</v>
+        <v>-15.886349</v>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>Q3 l09</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>-48.51105049</v>
+        <v>-52.273287</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>-27.75718808</v>
+        <v>-15.866503</v>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>138 2hp</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>392 Quadra 11 casa 1</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>-48.51113297</v>
+        <v>-52.272994</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>-27.75716642</v>
+        <v>-15.866615</v>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>363 Quadra 11 casa 12</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>-48.51123556</v>
+        <v>-52.272608</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>-27.75506075</v>
+        <v>-15.866009</v>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>443 Quadra 11 casa 20</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>-48.51104278</v>
+        <v>-52.272716</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>-27.75248595</v>
+        <v>-15.866158</v>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>423 Quadra 11 lote 18</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>-48.51096768</v>
+        <v>-52.272733</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>-27.75195336</v>
+        <v>-15.866697</v>
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>Quadra 12 lote 12</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>-48.51112559</v>
+        <v>-52.272118</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>-27.7567736</v>
+        <v>-15.867225</v>
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>287 Quadra 15 casa 14</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>-48.50830492</v>
+        <v>-52.272049</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>-27.75341256</v>
+        <v>-15.867145</v>
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>147 2hp</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>297 Quadra 15 lote 15</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>-48.50836359</v>
+        <v>-52.272005</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>-27.75351048</v>
+        <v>-15.867074</v>
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>307 Quadra 15 lote 16</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>-48.51107664</v>
+        <v>-52.27178</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>-27.75220378</v>
+        <v>-15.867211</v>
       </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>148 7hp</t>
-        </is>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>308 Quadra 17 lote 2</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>-48.51113264</v>
+        <v>-52.271735</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>-27.75173794</v>
+        <v>-15.867137</v>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>149 2hp</t>
-        </is>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>318 Quadra 17 lote 3</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>-48.51121645</v>
+        <v>-52.272734</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>-27.75714447</v>
+        <v>-15.865154</v>
       </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>567 Quadra 18 casa 4</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>-48.51135224</v>
+        <v>-52.272329</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>-27.75501862</v>
+        <v>-15.865624</v>
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>499 Quadra 19 casa 12</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>-48.51131737</v>
+        <v>-52.271916</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>-27.75294703</v>
+        <v>-15.864981</v>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>579 Quadra 19 casa 20</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>-48.5113734392937</v>
+        <v>-52.271589</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>-27.7567697336501</v>
+        <v>-15.864995</v>
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>592 Quadra 20 casa 12</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>-48.51137135</v>
+        <v>-52.271455</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>-27.75726404</v>
+        <v>-15.866295</v>
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
-          <t>161 pc hp</t>
-        </is>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>411 Quadra 21 lote 18</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>-48.51144377</v>
+        <v>-52.271388</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>-27.75505067</v>
+        <v>-15.866208</v>
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>421 Quadra 21 lote 19</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>-48.51103775</v>
+        <v>-52.264165</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>-27.75191093</v>
+        <v>-15.886166</v>
       </c>
       <c r="C47" s="0" t="inlineStr">
         <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>-48.51119332</v>
+        <v>-52.2646</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>-27.75226609</v>
+        <v>-15.8864</v>
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>-48.50805949</v>
+        <v>-52.2641</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>-27.75345025</v>
+        <v>-15.887891</v>
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>-48.5112587</v>
+        <v>-52.26445</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>-27.75235451</v>
+        <v>-15.887891</v>
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>-48.50782312</v>
+        <v>-52.264445</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>-27.75350128</v>
+        <v>-15.888396</v>
       </c>
       <c r="C51" s="0" t="inlineStr">
         <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>88066260</t>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>CEP NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>-48.51134084</v>
+        <v>-52.264636</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>-27.75168098</v>
+        <v>-15.888669</v>
       </c>
       <c r="C52" s="0" t="inlineStr">
         <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>-48.50963462</v>
+        <v>-52.264747</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>-27.7585775</v>
+        <v>-15.888193</v>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>17 pc hp</t>
-        </is>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>-48.51141091</v>
+        <v>-52.264525</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>-27.75494741</v>
+        <v>-15.887983</v>
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1118</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>-48.51138309</v>
+        <v>-52.264944</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>-27.75290104</v>
+        <v>-15.888097</v>
       </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1137</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>-48.51121511</v>
+        <v>-52.264723</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>-27.75186197</v>
+        <v>-15.887856</v>
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>-48.51143539</v>
+        <v>-52.265014</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>-27.75711866</v>
+        <v>-15.888023</v>
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>-48.51137303</v>
+        <v>-52.265694</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>-27.75152194</v>
+        <v>-15.888367</v>
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>1159</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>-48.51149675</v>
+        <v>-52.264257</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>-27.7528687</v>
+        <v>-15.885703</v>
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>-48.5113747</v>
+        <v>-52.265256</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>-27.75200943</v>
+        <v>-15.888273</v>
       </c>
       <c r="C60" s="0" t="inlineStr">
         <is>
-          <t>180 3hp</t>
-        </is>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>1176</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>-48.51129223</v>
+        <v>-52.264518</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>-27.7522376</v>
+        <v>-15.887515</v>
       </c>
       <c r="C61" s="0" t="inlineStr">
         <is>
-          <t>182 2hp</t>
-        </is>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1177</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>-48.51139348</v>
+        <v>-52.264961</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>-27.75233255</v>
+        <v>-15.887725</v>
       </c>
       <c r="C62" s="0" t="inlineStr">
         <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1184</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>-48.51151485</v>
+        <v>-52.26458</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>-27.75722369</v>
+        <v>-15.887486</v>
       </c>
       <c r="C63" s="0" t="inlineStr">
         <is>
-          <t>183 2hp</t>
-        </is>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>-48.51149105</v>
+        <v>-52.26439</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>-27.75233403</v>
+        <v>-15.88781</v>
       </c>
       <c r="C64" s="0" t="inlineStr">
         <is>
-          <t>183a</t>
-        </is>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>-48.50788448</v>
+        <v>-52.265076</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>-27.75359415</v>
+        <v>-15.887648</v>
       </c>
       <c r="C65" s="0" t="inlineStr">
         <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>-48.5115749141729</v>
+        <v>-52.265378</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>-27.7567011257516</v>
+        <v>-15.887794</v>
       </c>
       <c r="C66" s="0" t="inlineStr">
         <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>-48.51146087</v>
+        <v>-52.264684</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>-27.7519673</v>
+        <v>-15.887436</v>
       </c>
       <c r="C67" s="0" t="inlineStr">
         <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>1197</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>-48.5116925243287</v>
+        <v>-52.265141</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>-27.756833030006</v>
+        <v>-15.88762</v>
       </c>
       <c r="C68" s="0" t="inlineStr">
         <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1198 - 6hp</t>
+        </is>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>-48.51159934</v>
+        <v>-52.265422</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>-27.75708424</v>
+        <v>-15.887722</v>
       </c>
       <c r="C69" s="0" t="inlineStr">
         <is>
-          <t>194 2hp</t>
-        </is>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>-48.50773998</v>
+        <v>-52.265064</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>-27.75351196</v>
+        <v>-15.887217</v>
       </c>
       <c r="C70" s="0" t="inlineStr">
         <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>12 A</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>-48.51152357</v>
+        <v>-52.265486</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>-27.75185514</v>
+        <v>-15.887722</v>
       </c>
       <c r="C71" s="0" t="inlineStr">
         <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>-48.51143271</v>
+        <v>-52.265214</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>-27.75181212</v>
+        <v>-15.887563</v>
       </c>
       <c r="C72" s="0" t="inlineStr">
         <is>
-          <t>196 2hp</t>
-        </is>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>-48.50929298</v>
+        <v>-52.26553</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>-27.75816688</v>
+        <v>-15.887671</v>
       </c>
       <c r="C73" s="0" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>-48.51165265</v>
+        <v>-52.264799</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>-27.75722517</v>
+        <v>-15.887371</v>
       </c>
       <c r="C74" s="0" t="inlineStr">
         <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>-48.5114783</v>
+        <v>-52.26561</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>-27.75220764</v>
+        <v>-15.888046</v>
       </c>
       <c r="C75" s="0" t="inlineStr">
         <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>-48.51163723</v>
+        <v>-52.265453</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>-27.75230733</v>
+        <v>-15.887402</v>
       </c>
       <c r="C76" s="0" t="inlineStr">
         <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>-48.5116218</v>
+        <v>-52.265517</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>-27.75218657</v>
+        <v>-15.88737</v>
       </c>
       <c r="C77" s="0" t="inlineStr">
         <is>
-          <t>204 2hp</t>
-        </is>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1248</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>-48.5117725667263</v>
+        <v>-52.265821</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>-27.7568379238411</v>
+        <v>-15.887447</v>
       </c>
       <c r="C78" s="0" t="inlineStr">
         <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>-48.511830822839</v>
+        <v>-52.265876</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>-27.7566461531067</v>
+        <v>-15.887421</v>
       </c>
       <c r="C79" s="0" t="inlineStr">
         <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1261 B</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>-48.51178676</v>
+        <v>-52.265777</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>-27.75226846</v>
+        <v>-15.887218</v>
       </c>
       <c r="C80" s="0" t="inlineStr">
         <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="D80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1272 - 31hp</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>Térreo Comercial
+1 : 101 ao 110
+2 : 201 ao 210
+3 : 301 ao 310</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>-48.51198424</v>
+        <v>-52.264315</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>-27.75217144</v>
+        <v>-15.885602</v>
       </c>
       <c r="C81" s="0" t="inlineStr">
         <is>
-          <t>216 3hp</t>
-        </is>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>-48.51164997</v>
+        <v>-52.265357</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>-27.75180025</v>
+        <v>-15.886936</v>
       </c>
       <c r="C82" s="0" t="inlineStr">
         <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>-48.51178944</v>
+        <v>-52.264766</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>-27.7521563</v>
+        <v>-15.885357</v>
       </c>
       <c r="C83" s="0" t="inlineStr">
         <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>-48.51170361</v>
+        <v>-52.265464</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>-27.75707415</v>
+        <v>-15.886842</v>
       </c>
       <c r="C84" s="0" t="inlineStr">
         <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="D84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1291</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>-48.50753646</v>
+        <v>-52.272959</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>-27.75366595</v>
+        <v>-15.866522</v>
       </c>
       <c r="C85" s="0" t="inlineStr">
         <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>373 Quadra 11 lote 13</t>
+        </is>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>-48.50746438</v>
+        <v>-52.264225</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>-27.75353392</v>
+        <v>-15.888149</v>
       </c>
       <c r="C86" s="0" t="inlineStr">
         <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>154 5hp</t>
+        </is>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>-48.51188064</v>
+        <v>-52.264615</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>-27.75701481</v>
+        <v>-15.885186</v>
       </c>
       <c r="C87" s="0" t="inlineStr">
         <is>
-          <t>224 3hp</t>
-        </is>
-      </c>
-      <c r="D87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>-48.51208583</v>
+        <v>-52.264491</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>-27.7569528</v>
+        <v>-15.885842</v>
       </c>
       <c r="C88" s="0" t="inlineStr">
         <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="D88" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>-48.51191819</v>
+        <v>-52.264436</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>-27.75172459</v>
+        <v>-15.886155</v>
       </c>
       <c r="C89" s="0" t="inlineStr">
         <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>-48.51200335</v>
+        <v>-52.264548</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>-27.75170679</v>
+        <v>-15.885108</v>
       </c>
       <c r="C90" s="0" t="inlineStr">
         <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>-48.51122919</v>
+        <v>-52.264956</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>-27.75262748</v>
+        <v>-15.886845</v>
       </c>
       <c r="C91" s="0" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1778</t>
+        </is>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>-48.51167779</v>
+        <v>-52.26498</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>-27.75282598</v>
+        <v>-15.886722</v>
       </c>
       <c r="C92" s="0" t="inlineStr">
         <is>
-          <t>252 4hp</t>
-        </is>
-      </c>
-      <c r="D92" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1804</t>
+        </is>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>-48.51224877</v>
+        <v>-52.265033</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>-27.75270878</v>
+        <v>-15.887697</v>
       </c>
       <c r="C93" s="0" t="inlineStr">
         <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="D93" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>1842</t>
+        </is>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>-48.51247407</v>
+        <v>-52.264377</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>-27.75270551</v>
+        <v>-15.885362</v>
       </c>
       <c r="C94" s="0" t="inlineStr">
         <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="D94" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>-48.51127245</v>
+        <v>-52.264583</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>-27.75280817</v>
+        <v>-15.885803</v>
       </c>
       <c r="C95" s="0" t="inlineStr">
         <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="D95" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>-48.51201106</v>
+        <v>-52.264316</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>-27.75277791</v>
+        <v>-15.885284</v>
       </c>
       <c r="C96" s="0" t="inlineStr">
         <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="D96" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>-48.51237416</v>
+        <v>-52.264905</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>-27.75257822</v>
+        <v>-15.886747</v>
       </c>
       <c r="C97" s="0" t="inlineStr">
         <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="D97" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>-48.5123377000696</v>
+        <v>-52.264109</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>-27.7519649799921</v>
+        <v>-15.886147</v>
       </c>
       <c r="C98" s="0" t="inlineStr">
         <is>
-          <t>276</t>
-        </is>
-      </c>
-      <c r="D98" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>-48.5122538</v>
+        <v>-52.264894</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>-27.75259128</v>
+        <v>-15.885254</v>
       </c>
       <c r="C99" s="0" t="inlineStr">
         <is>
-          <t>276</t>
-        </is>
-      </c>
-      <c r="D99" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>-48.5124848</v>
+        <v>-52.264899</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>-27.75253431</v>
+        <v>-15.885565</v>
       </c>
       <c r="C100" s="0" t="inlineStr">
         <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="D100" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>-48.51262998</v>
+        <v>-52.26498</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>-27.7524809</v>
+        <v>-15.885193</v>
       </c>
       <c r="C101" s="0" t="inlineStr">
         <is>
-          <t>282</t>
-        </is>
-      </c>
-      <c r="D101" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>-48.5123061</v>
+        <v>-52.264145</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>-27.75167207</v>
+        <v>-15.885739</v>
       </c>
       <c r="C102" s="0" t="inlineStr">
         <is>
-          <t>283 4hp (casas de uma família) portão fechado.</t>
-        </is>
-      </c>
-      <c r="D102" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>-48.51265546</v>
+        <v>-52.27184</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>-27.75264083</v>
+        <v>-15.86483</v>
       </c>
       <c r="C103" s="0" t="inlineStr">
         <is>
-          <t>284 2hp</t>
-        </is>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>599 Quadra 19 lote 22</t>
+        </is>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>-48.51009194</v>
+        <v>-52.264958</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>-27.75705576</v>
+        <v>-15.885515</v>
       </c>
       <c r="C104" s="0" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>-48.510102</v>
+        <v>-52.264288</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>-27.75319627</v>
+        <v>-15.885966</v>
       </c>
       <c r="C105" s="0" t="inlineStr">
         <is>
-          <t>34 2hp</t>
-        </is>
-      </c>
-      <c r="D105" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>-48.51016771</v>
+        <v>-52.265076</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>-27.75193199</v>
+        <v>-15.885145</v>
       </c>
       <c r="C106" s="0" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D106" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>230 - 3hp</t>
+        </is>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>-48.50949649</v>
+        <v>-52.27253</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>-27.75648817</v>
+        <v>-15.866825</v>
       </c>
       <c r="C107" s="0" t="inlineStr">
         <is>
-          <t>35 2hp</t>
-        </is>
-      </c>
-      <c r="D107" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>y, 88066260</t>
-        </is>
+          <t>q12 l24</t>
+        </is>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>-48.51015564</v>
+        <v>-52.265159</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>-27.75308203</v>
+        <v>-15.885028</v>
       </c>
       <c r="C108" s="0" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D108" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>-48.51016939</v>
+        <v>-52.265034</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>-27.75704864</v>
+        <v>-15.8855</v>
       </c>
       <c r="C109" s="0" t="inlineStr">
         <is>
-          <t>37 2hp</t>
-        </is>
-      </c>
-      <c r="D109" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>-48.51018045</v>
+        <v>-52.265244</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>-27.75527082</v>
+        <v>-15.884948</v>
       </c>
       <c r="C110" s="0" t="inlineStr">
         <is>
-          <t>37 2hp</t>
-        </is>
-      </c>
-      <c r="D110" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>-48.50911025</v>
+        <v>-52.265341</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>-27.75808529</v>
+        <v>-15.884896</v>
       </c>
       <c r="C111" s="0" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D111" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>-48.511729550957</v>
+        <v>-52.265127</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>-27.7566955679223</v>
+        <v>-15.885432</v>
       </c>
       <c r="C112" s="0" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D112" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>-48.51026628</v>
+        <v>-52.265438</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>-27.75733584</v>
+        <v>-15.884863</v>
       </c>
       <c r="C113" s="0" t="inlineStr">
         <is>
-          <t>40 3hp</t>
-        </is>
-      </c>
-      <c r="D113" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>-48.5093141</v>
+        <v>-52.265226</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>-27.7532295</v>
+        <v>-15.885357</v>
       </c>
       <c r="C114" s="0" t="inlineStr">
         <is>
-          <t>41 2hp</t>
-        </is>
-      </c>
-      <c r="D114" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>-48.5103159</v>
+        <v>-52.265098</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>-27.7552367</v>
+        <v>-15.886342</v>
       </c>
       <c r="C115" s="0" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D115" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>-48.50931276</v>
+        <v>-52.264819</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>-27.75651488</v>
+        <v>-15.886651</v>
       </c>
       <c r="C116" s="0" t="inlineStr">
         <is>
-          <t>43 2hp</t>
-        </is>
-      </c>
-      <c r="D116" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>y, 88066260</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>-48.51019621</v>
+        <v>-52.265619</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>-27.75315977</v>
+        <v>-15.884793</v>
       </c>
       <c r="C117" s="0" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D117" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>300 - 3hp</t>
+        </is>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>-48.51143204</v>
+        <v>-52.265381</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>-27.75254054</v>
+        <v>-15.885184</v>
       </c>
       <c r="C118" s="0" t="inlineStr">
         <is>
-          <t>47 2hp</t>
-        </is>
-      </c>
-      <c r="D118" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>-48.50944452</v>
+        <v>-52.27196</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>-27.75751919</v>
+        <v>-15.866999</v>
       </c>
       <c r="C119" s="0" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D119" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>317 Quadra 15 Lote 17</t>
+        </is>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>-48.51015564</v>
+        <v>-52.265473</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>-27.75211061</v>
+        <v>-15.885138</v>
       </c>
       <c r="C120" s="0" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D120" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>-48.50932013</v>
+        <v>-52.265621</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>-27.75745451</v>
+        <v>-15.885088</v>
       </c>
       <c r="C121" s="0" t="inlineStr">
         <is>
-          <t>48 2</t>
-        </is>
-      </c>
-      <c r="D121" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>-48.5102294</v>
+        <v>-52.265506</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>-27.75207026</v>
+        <v>-15.885118</v>
       </c>
       <c r="C122" s="0" t="inlineStr">
         <is>
-          <t>48 2</t>
-        </is>
-      </c>
-      <c r="D122" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>-48.50937378</v>
+        <v>-52.27229</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>-27.75650301</v>
+        <v>-15.866999</v>
       </c>
       <c r="C123" s="0" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D123" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>y, 88066260</t>
-        </is>
+          <t>332 Q15 L3</t>
+        </is>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>-48.50920547</v>
+        <v>-52.272231</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>-27.75326362</v>
+        <v>-15.866924</v>
       </c>
       <c r="C124" s="0" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D124" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>342 Q15 L4</t>
+        </is>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>-48.50936539</v>
+        <v>-52.271594</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>-27.75659499</v>
+        <v>-15.866893</v>
       </c>
       <c r="C125" s="0" t="inlineStr">
         <is>
-          <t>52 5hp</t>
-        </is>
-      </c>
-      <c r="D125" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>y, 88066260</t>
-        </is>
+          <t>348 Quadra 17 lote 6</t>
+        </is>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>-48.5115955347495</v>
+        <v>-52.272207</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>-27.7568359085092</v>
+        <v>-15.86686</v>
       </c>
       <c r="C126" s="0" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D126" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>352 Q15 L5</t>
+        </is>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>-48.51015329</v>
+        <v>-52.271765</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>-27.75693441</v>
+        <v>-15.866691</v>
       </c>
       <c r="C127" s="0" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>357 Quadra 17 Lo 21</t>
+        </is>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>-48.51025689</v>
+        <v>-52.264824</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>-27.75702638</v>
+        <v>-15.888442</v>
       </c>
       <c r="C128" s="0" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D128" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>37 - 4hp</t>
+        </is>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>-48.51038732</v>
+        <v>-52.272217</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>-27.75731536</v>
+        <v>-15.866397</v>
       </c>
       <c r="C129" s="0" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D129" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>391 Quadra 13 lote 13</t>
+        </is>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>-48.50965574</v>
+        <v>-52.272199</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>-27.75178898</v>
+        <v>-15.866312</v>
       </c>
       <c r="C130" s="0" t="inlineStr">
         <is>
-          <t>5937</t>
-        </is>
-      </c>
-      <c r="D130" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>", ", 88066355</t>
-        </is>
+          <t>401 Quadra 13 lote 14</t>
+        </is>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>-48.50997191</v>
+        <v>-52.271939</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>-27.7517599</v>
+        <v>-15.866486</v>
       </c>
       <c r="C131" s="0" t="inlineStr">
         <is>
-          <t>5950</t>
-        </is>
-      </c>
-      <c r="D131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>88066355</t>
+          <t>402 QUADRA 15 LOTE 10</t>
+        </is>
+      </c>
+      <c r="E131" s="0" t="inlineStr">
+        <is>
+          <t>CEP NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>-48.50955617</v>
+        <v>-52.273232</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>-27.75207501</v>
+        <v>-15.866414</v>
       </c>
       <c r="C132" s="0" t="inlineStr">
         <is>
-          <t>5983</t>
-        </is>
-      </c>
-      <c r="D132" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>", ", 88066355</t>
-        </is>
+          <t>402 Quadra 11 lote 2</t>
+        </is>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>-48.5099823</v>
+        <v>-52.272828</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>-27.75208628</v>
+        <v>-15.866301</v>
       </c>
       <c r="C133" s="0" t="inlineStr">
         <is>
-          <t>5992</t>
-        </is>
-      </c>
-      <c r="D133" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>88066355</t>
-        </is>
+          <t>403 Quadra 11 lote 16</t>
+        </is>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>-48.5087562</v>
+        <v>-52.273182</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>-27.7582817</v>
+        <v>-15.866331</v>
       </c>
       <c r="C134" s="0" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D134" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>412 Quadra 11 lote 3</t>
+        </is>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>-48.51033535</v>
+        <v>-52.27247</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>-27.75293546</v>
+        <v>-15.866327</v>
       </c>
       <c r="C135" s="0" t="inlineStr">
         <is>
-          <t>60 6hp</t>
-        </is>
-      </c>
-      <c r="D135" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>416 Quadra 13 lote 4</t>
+        </is>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>-48.50985926</v>
+        <v>-52.272041</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>-27.75237617</v>
+        <v>-15.866162</v>
       </c>
       <c r="C136" s="0" t="inlineStr">
         <is>
-          <t>6000 2pc 4hp</t>
-        </is>
-      </c>
-      <c r="D136" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>", ", 88066355</t>
-        </is>
+          <t>421 Quadra 13 Lote 16</t>
+        </is>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>-48.50962222</v>
+        <v>-52.273144</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>-27.75235184</v>
+        <v>-15.866264</v>
       </c>
       <c r="C137" s="0" t="inlineStr">
         <is>
-          <t>6009 pc 3hp</t>
-        </is>
-      </c>
-      <c r="D137" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>", ", 88066355</t>
-        </is>
+          <t>422 Quadra 11 lote 4</t>
+        </is>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>-48.50985758</v>
+        <v>-52.272426</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>-27.75246726</v>
+        <v>-15.866249</v>
       </c>
       <c r="C138" s="0" t="inlineStr">
         <is>
-          <t>6022</t>
-        </is>
-      </c>
-      <c r="D138" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>426 Quadra 13 lote 5</t>
+        </is>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>-48.50962322</v>
+        <v>-52.272664</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>-27.75252867</v>
+        <v>-15.866091</v>
       </c>
       <c r="C139" s="0" t="inlineStr">
         <is>
-          <t>6025 3hp</t>
-        </is>
-      </c>
-      <c r="D139" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>6074, ", ", 88066260</t>
-        </is>
+          <t>433 Quadra 11 lote 19</t>
+        </is>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>-48.50961819</v>
+        <v>-52.272359</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>-27.75260938</v>
+        <v>-15.866173</v>
       </c>
       <c r="C140" s="0" t="inlineStr">
         <is>
-          <t>6041</t>
-        </is>
-      </c>
-      <c r="D140" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>6074, ", ", 88066260</t>
-        </is>
+          <t>436 Quadra 13 lote 6</t>
+        </is>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>-48.50956421</v>
+        <v>-52.272316</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>-27.75261146</v>
+        <v>-15.866093</v>
       </c>
       <c r="C141" s="0" t="inlineStr">
         <is>
-          <t>6059</t>
-        </is>
-      </c>
-      <c r="D141" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>88066260</t>
+          <t>446 Quadra 13 lote 7</t>
+        </is>
+      </c>
+      <c r="E141" s="0" t="inlineStr">
+        <is>
+          <t>CEP NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>-48.50963764</v>
+        <v>-52.271904</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>-27.75272242</v>
+        <v>-15.865918</v>
       </c>
       <c r="C142" s="0" t="inlineStr">
         <is>
-          <t>6063</t>
-        </is>
-      </c>
-      <c r="D142" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>6074, ", ", 88066260</t>
-        </is>
+          <t>455 Q20 L17</t>
+        </is>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>-48.50956153</v>
+        <v>-52.271229</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>-27.75278147</v>
+        <v>-15.865913</v>
       </c>
       <c r="C143" s="0" t="inlineStr">
         <is>
-          <t>6073</t>
-        </is>
-      </c>
-      <c r="D143" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>6074, ", ", 88066260</t>
-        </is>
+          <t>461 Quadra 21 lote 23</t>
+        </is>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>-48.50959472</v>
+        <v>-52.271604</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>-27.75298827</v>
+        <v>-15.865978</v>
       </c>
       <c r="C144" s="0" t="inlineStr">
         <is>
-          <t>6087 7hp</t>
-        </is>
-      </c>
-      <c r="D144" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>6074, ", ", 88066260</t>
-        </is>
+          <t>466 Quadra 21 lote 3</t>
+        </is>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>-48.50998599</v>
+        <v>-52.2718</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>-27.752977</v>
+        <v>-15.865773</v>
       </c>
       <c r="C145" s="0" t="inlineStr">
         <is>
-          <t>6090</t>
-        </is>
-      </c>
-      <c r="D145" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>475 Q20 L19</t>
+        </is>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>-48.50961987</v>
+        <v>-52.271138</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>-27.75318232</v>
+        <v>-15.865748</v>
       </c>
       <c r="C146" s="0" t="inlineStr">
         <is>
-          <t>6105</t>
-        </is>
-      </c>
-      <c r="D146" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>481 Quadra 21 lote 25</t>
+        </is>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>-48.50959875</v>
+        <v>-52.270903</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>-27.75330812</v>
+        <v>-15.865895</v>
       </c>
       <c r="C147" s="0" t="inlineStr">
         <is>
-          <t>6119</t>
-        </is>
-      </c>
-      <c r="D147" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>482 q22 l8</t>
+        </is>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>-48.50986227</v>
+        <v>-52.271753</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>-27.75636089</v>
+        <v>-15.865703</v>
       </c>
       <c r="C148" s="0" t="inlineStr">
         <is>
-          <t>6178</t>
-        </is>
-      </c>
-      <c r="D148" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>6454, ", ", 88066260</t>
-        </is>
+          <t>485 Q20 L20</t>
+        </is>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>-48.50962959</v>
+        <v>-52.271505</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>-27.75380214</v>
+        <v>-15.865837</v>
       </c>
       <c r="C149" s="0" t="inlineStr">
         <is>
-          <t>6189</t>
-        </is>
-      </c>
-      <c r="D149" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>406, (39), ", ", 88066260</t>
-        </is>
+          <t>486 Quadra 21 lote 5</t>
+        </is>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>-48.51023611</v>
+        <v>-52.264513</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>-27.75305563</v>
+        <v>-15.886723</v>
       </c>
       <c r="C150" s="0" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>Q3 L5</t>
+        </is>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>-48.51035915</v>
+        <v>-52.265026</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>-27.75691037</v>
+        <v>-15.886248</v>
       </c>
       <c r="C151" s="0" t="inlineStr">
         <is>
-          <t>62 2hp</t>
-        </is>
-      </c>
-      <c r="D151" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>-48.51026192</v>
+        <v>-52.271012</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>-27.75312921</v>
+        <v>-15.865613</v>
       </c>
       <c r="C152" s="0" t="inlineStr">
         <is>
-          <t>62 2hp</t>
-        </is>
-      </c>
-      <c r="D152" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>501 Quadra 21 lote 27</t>
+        </is>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>-48.5104138</v>
+        <v>-52.271628</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>-27.75521415</v>
+        <v>-15.865516</v>
       </c>
       <c r="C153" s="0" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D153" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>505 Q20 L22</t>
+        </is>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>-48.50908175</v>
+        <v>-52.27266</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>-27.75326481</v>
+        <v>-15.865534</v>
       </c>
       <c r="C154" s="0" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D154" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>508 Quadra 19 lote 1</t>
+        </is>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>-48.50969296</v>
+        <v>-52.272283</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>-27.75498272</v>
+        <v>-15.865536</v>
       </c>
       <c r="C155" s="0" t="inlineStr">
         <is>
-          <t>6350</t>
-        </is>
-      </c>
-      <c r="D155" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>406, (38), ", ", 88066260</t>
-        </is>
+          <t>509 Quadra 19 lote 13</t>
+        </is>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>-48.50950353</v>
+        <v>-52.26475</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>-27.75539484</v>
+        <v>-15.888372</v>
       </c>
       <c r="C156" s="0" t="inlineStr">
         <is>
-          <t>6353 5hp</t>
-        </is>
-      </c>
-      <c r="D156" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>-48.50998398</v>
+        <v>-52.270749</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>-27.75538297</v>
+        <v>-15.865689</v>
       </c>
       <c r="C157" s="0" t="inlineStr">
         <is>
-          <t>6366</t>
-        </is>
-      </c>
-      <c r="D157" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>88066260</t>
-        </is>
+          <t>512 q22 l11</t>
+        </is>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>-48.50967653</v>
+        <v>-52.272611</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>-27.75554616</v>
+        <v>-15.865466</v>
       </c>
       <c r="C158" s="0" t="inlineStr">
         <is>
-          <t>6371 6hp</t>
-        </is>
-      </c>
-      <c r="D158" s="0" t="n">
+          <t>518 Quadra 19 lote 2</t>
+        </is>
+      </c>
+      <c r="E158" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>-48.50970805</v>
+        <v>-52.270887</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>-27.75566098</v>
+        <v>-15.86546</v>
       </c>
       <c r="C159" s="0" t="inlineStr">
         <is>
-          <t>6389</t>
-        </is>
-      </c>
-      <c r="D159" s="0" t="n">
+          <t>521 Quadra 21 lote 29</t>
+        </is>
+      </c>
+      <c r="E159" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>-48.51068839</v>
+        <v>-52.271306</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>-27.75534321</v>
+        <v>-15.865539</v>
       </c>
       <c r="C160" s="0" t="inlineStr">
         <is>
-          <t>6396</t>
-        </is>
-      </c>
-      <c r="D160" s="0" t="n">
+          <t>526 Quadra 21 lote 19</t>
+        </is>
+      </c>
+      <c r="E160" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>-48.50908477</v>
+        <v>-52.272923</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>-27.75661872</v>
+        <v>-15.865474</v>
       </c>
       <c r="C161" s="0" t="inlineStr">
         <is>
-          <t>64 3hp</t>
-        </is>
-      </c>
-      <c r="D161" s="0" t="n">
+          <t>527</t>
+        </is>
+      </c>
+      <c r="E161" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>-48.50966077</v>
+        <v>-52.272557</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>-27.75598557</v>
+        <v>-15.86537</v>
       </c>
       <c r="C162" s="0" t="inlineStr">
         <is>
-          <t>6413 22hp RECANTO DA ARMAÇÃO</t>
-        </is>
-      </c>
-      <c r="D162" s="0" t="n">
+          <t>528 Quadra 19 lote 3</t>
+        </is>
+      </c>
+      <c r="E162" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>-48.51001147</v>
+        <v>-52.265154</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>-27.75577343</v>
+        <v>-15.885901</v>
       </c>
       <c r="C163" s="0" t="inlineStr">
         <is>
-          <t>6422  18hp COND AGUAS CLARAS</t>
-        </is>
-      </c>
-      <c r="D163" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" s="0" t="inlineStr">
-        <is>
-          <t>subterraneo</t>
-        </is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>-48.5096544</v>
+        <v>-52.270853</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>-27.75610247</v>
+        <v>-15.865365</v>
       </c>
       <c r="C164" s="0" t="inlineStr">
         <is>
-          <t>6427</t>
-        </is>
-      </c>
-      <c r="D164" s="0" t="n">
-        <v>0</v>
+          <t>531 Quadra 21 lote 30</t>
+        </is>
+      </c>
+      <c r="E164" s="0" t="inlineStr">
+        <is>
+          <t>CEP NÃO ENCONTRADO</t>
+        </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>-48.50919072</v>
+        <v>-52.270646</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>-27.75618169</v>
+        <v>-15.865531</v>
       </c>
       <c r="C165" s="0" t="inlineStr">
         <is>
-          <t>6437 5hp</t>
-        </is>
-      </c>
-      <c r="D165" s="0" t="n">
+          <t>532 q22 l13</t>
+        </is>
+      </c>
+      <c r="E165" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>-48.50969765</v>
+        <v>-52.271465</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>-27.75635347</v>
+        <v>-15.865328</v>
       </c>
       <c r="C166" s="0" t="inlineStr">
         <is>
-          <t>6447 2hp</t>
-        </is>
-      </c>
-      <c r="D166" s="0" t="n">
+          <t>535 Q20 L25</t>
+        </is>
+      </c>
+      <c r="E166" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>-48.50965105</v>
+        <v>-52.272517</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>-27.75623628</v>
+        <v>-15.8653</v>
       </c>
       <c r="C167" s="0" t="inlineStr">
         <is>
-          <t>6459</t>
-        </is>
-      </c>
-      <c r="D167" s="0" t="n">
+          <t>538 Quadra 19 lote 4</t>
+        </is>
+      </c>
+      <c r="E167" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>-48.50966983</v>
+        <v>-52.270798</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>-27.75645138</v>
+        <v>-15.86529</v>
       </c>
       <c r="C168" s="0" t="inlineStr">
         <is>
-          <t>6477 pc hp</t>
-        </is>
-      </c>
-      <c r="D168" s="0" t="n">
+          <t>541 Quadra 21 lote 32</t>
+        </is>
+      </c>
+      <c r="E168" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>-48.50959841</v>
+        <v>-52.270587</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>-27.75654781</v>
+        <v>-15.865443</v>
       </c>
       <c r="C169" s="0" t="inlineStr">
         <is>
-          <t>6489</t>
-        </is>
-      </c>
-      <c r="D169" s="0" t="n">
+          <t>542 q22 l14</t>
+        </is>
+      </c>
+      <c r="E169" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>-48.51035614</v>
+        <v>-52.271179</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>-27.75186494</v>
+        <v>-15.865397</v>
       </c>
       <c r="C170" s="0" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D170" s="0" t="n">
+          <t>546 Quadra 21 lote 21</t>
+        </is>
+      </c>
+      <c r="E170" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>-48.50920513</v>
+        <v>-52.272452</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>-27.75652793</v>
+        <v>-15.865231</v>
       </c>
       <c r="C171" s="0" t="inlineStr">
         <is>
-          <t>65 2hp</t>
-        </is>
-      </c>
-      <c r="D171" s="0" t="n">
+          <t>548 Quadra 19 lote 5</t>
+        </is>
+      </c>
+      <c r="E171" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>-48.50991189</v>
+        <v>-52.272411</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>-27.75658965</v>
+        <v>-15.865144</v>
       </c>
       <c r="C172" s="0" t="inlineStr">
         <is>
-          <t>6502 4hp</t>
-        </is>
-      </c>
-      <c r="D172" s="0" t="n">
+          <t>558 Quadra 19 lote 6</t>
+        </is>
+      </c>
+      <c r="E172" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>-48.50989345</v>
+        <v>-52.272015</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>-27.75695221</v>
+        <v>-15.865157</v>
       </c>
       <c r="C173" s="0" t="inlineStr">
         <is>
-          <t>6510</t>
-        </is>
-      </c>
-      <c r="D173" s="0" t="n">
+          <t>559 Quadra 19 lote 18</t>
+        </is>
+      </c>
+      <c r="E173" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>-48.5095612</v>
+        <v>-52.271688</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>-27.75686112</v>
+        <v>-15.86516</v>
       </c>
       <c r="C174" s="0" t="inlineStr">
         <is>
-          <t>6523</t>
-        </is>
-      </c>
-      <c r="D174" s="0" t="n">
+          <t>572 Quadra 20 lote 10</t>
+        </is>
+      </c>
+      <c r="E174" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>-48.50954242</v>
+        <v>-52.271631</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>-27.75696022</v>
+        <v>-15.865079</v>
       </c>
       <c r="C175" s="0" t="inlineStr">
         <is>
-          <t>6533</t>
-        </is>
-      </c>
-      <c r="D175" s="0" t="n">
+          <t>582 Quadra 20 lote 11</t>
+        </is>
+      </c>
+      <c r="E175" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>-48.50991257</v>
+        <v>-52.272603</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>-27.75710026</v>
+        <v>-15.865001</v>
       </c>
       <c r="C176" s="0" t="inlineStr">
         <is>
-          <t>6554  pc 2hp</t>
-        </is>
-      </c>
-      <c r="D176" s="0" t="n">
+          <t>587 Quadra 18 lote 6</t>
+        </is>
+      </c>
+      <c r="E176" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>-48.50962255</v>
+        <v>-52.272248</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>-27.75713646</v>
+        <v>-15.864933</v>
       </c>
       <c r="C177" s="0" t="inlineStr">
         <is>
-          <t>6555</t>
-        </is>
-      </c>
-      <c r="D177" s="0" t="n">
+          <t>588 Quadra 19 lote 9</t>
+        </is>
+      </c>
+      <c r="E177" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>-48.50991424</v>
+        <v>-52.26418</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>-27.7572314</v>
+        <v>-15.886248</v>
       </c>
       <c r="C178" s="0" t="inlineStr">
         <is>
-          <t>6564 2pc hp</t>
-        </is>
-      </c>
-      <c r="D178" s="0" t="n">
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E178" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>-48.50934092</v>
+        <v>-52.272121</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>-27.75730617</v>
+        <v>-15.864764</v>
       </c>
       <c r="C179" s="0" t="inlineStr">
         <is>
-          <t>6571</t>
-        </is>
-      </c>
-      <c r="D179" s="0" t="n">
+          <t>608</t>
+        </is>
+      </c>
+      <c r="E179" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>-48.50965876</v>
+        <v>-52.264931</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>-27.75762126</v>
+        <v>-15.886142</v>
       </c>
       <c r="C180" s="0" t="inlineStr">
         <is>
-          <t>6605 2hp</t>
-        </is>
-      </c>
-      <c r="D180" s="0" t="n">
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E180" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="n">
-        <v>-48.5098948</v>
+        <v>-52.271018</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>-27.75755153</v>
+        <v>-15.864602</v>
       </c>
       <c r="C181" s="0" t="inlineStr">
         <is>
-          <t>6608 4pc hp</t>
-        </is>
-      </c>
-      <c r="D181" s="0" t="n">
+          <t>625</t>
+        </is>
+      </c>
+      <c r="E181" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="n">
-        <v>-48.50989547</v>
+        <v>-52.265082</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>-27.75763342</v>
+        <v>-15.885796</v>
       </c>
       <c r="C182" s="0" t="inlineStr">
         <is>
-          <t>6616</t>
-        </is>
-      </c>
-      <c r="D182" s="0" t="n">
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E182" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="n">
-        <v>-48.50992531</v>
+        <v>-52.272361</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>-27.75768801</v>
+        <v>-15.865075</v>
       </c>
       <c r="C183" s="0" t="inlineStr">
         <is>
-          <t>6628</t>
-        </is>
-      </c>
-      <c r="D183" s="0" t="n">
+          <t>568 Quadra 19 lote 7</t>
+        </is>
+      </c>
+      <c r="E183" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="n">
-        <v>-48.50960176</v>
+        <v>-52.265891</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>-27.7578414</v>
+        <v>-15.886827</v>
       </c>
       <c r="C184" s="0" t="inlineStr">
         <is>
-          <t>6631 pc hp</t>
-        </is>
-      </c>
-      <c r="D184" s="0" t="n">
+          <t>709</t>
+        </is>
+      </c>
+      <c r="E184" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="n">
-        <v>-48.50935701</v>
+        <v>-52.264841</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>-27.75775329</v>
+        <v>-15.886011</v>
       </c>
       <c r="C185" s="0" t="inlineStr">
         <is>
-          <t>6633</t>
-        </is>
-      </c>
-      <c r="D185" s="0" t="n">
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E185" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="n">
-        <v>-48.50989882</v>
+        <v>-52.265001</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>-27.75778563</v>
+        <v>-15.885722</v>
       </c>
       <c r="C186" s="0" t="inlineStr">
         <is>
-          <t>6636</t>
-        </is>
-      </c>
-      <c r="D186" s="0" t="n">
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E186" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="n">
-        <v>-48.50963529</v>
+        <v>-52.264664</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>-27.75796987</v>
+        <v>-15.886501</v>
       </c>
       <c r="C187" s="0" t="inlineStr">
         <is>
-          <t>6653</t>
-        </is>
-      </c>
-      <c r="D187" s="0" t="n">
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E187" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="n">
-        <v>-48.50963227</v>
+        <v>-52.265797</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>-27.75816806</v>
+        <v>-15.8867</v>
       </c>
       <c r="C188" s="0" t="inlineStr">
         <is>
-          <t>6667</t>
-        </is>
-      </c>
-      <c r="D188" s="0" t="n">
+          <t>839</t>
+        </is>
+      </c>
+      <c r="E188" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="n">
-        <v>-48.50959104</v>
+        <v>-52.265743</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>-27.75830158</v>
+        <v>-15.886664</v>
       </c>
       <c r="C189" s="0" t="inlineStr">
         <is>
-          <t>6687</t>
-        </is>
-      </c>
-      <c r="D189" s="0" t="n">
+          <t>839 B</t>
+        </is>
+      </c>
+      <c r="E189" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="n">
-        <v>-48.50955147</v>
+        <v>-52.264752</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>-27.7574827</v>
+        <v>-15.885888</v>
       </c>
       <c r="C190" s="0" t="inlineStr">
         <is>
-          <t>6693</t>
-        </is>
-      </c>
-      <c r="D190" s="0" t="n">
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E190" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="n">
-        <v>-48.50948609</v>
+        <v>-52.264153</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>-27.7586039</v>
+        <v>-15.887945</v>
       </c>
       <c r="C191" s="0" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D191" s="0" t="n">
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E191" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="n">
-        <v>-48.5093027</v>
+        <v>-52.2719075021095</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>-27.75545181</v>
+        <v>-15.8669122968333</v>
       </c>
       <c r="C192" s="0" t="inlineStr">
         <is>
-          <t>67 2hp</t>
-        </is>
-      </c>
-      <c r="D192" s="0" t="n">
-        <v>0</v>
+          <t>327 Quadra 15 Lote 18</t>
+        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="n">
-        <v>-48.51027466</v>
+        <v>-52.2718628288089</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>-27.75221772</v>
+        <v>-15.8668237290614</v>
       </c>
       <c r="C193" s="0" t="inlineStr">
         <is>
-          <t>67 2hp</t>
-        </is>
-      </c>
-      <c r="D193" s="0" t="n">
-        <v>0</v>
+          <t>337 Quadra 15 Lote 19</t>
+        </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="n">
-        <v>-48.50997593</v>
+        <v>-52.2718157102754</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>-27.75844488</v>
+        <v>-15.866758342087</v>
       </c>
       <c r="C194" s="0" t="inlineStr">
         <is>
-          <t>6708</t>
-        </is>
-      </c>
-      <c r="D194" s="0" t="n">
-        <v>0</v>
+          <t>347 Quadra 15 Lote 20</t>
+        </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="n">
-        <v>-48.50999437</v>
+        <v>-52.2717121790236</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>-27.75856652</v>
+        <v>-15.8666072086938</v>
       </c>
       <c r="C195" s="0" t="inlineStr">
         <is>
-          <t>6724 3hp</t>
-        </is>
-      </c>
-      <c r="D195" s="0" t="n">
-        <v>0</v>
+          <t>367 Quadra 17 Lote 22</t>
+        </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="n">
-        <v>-48.51005238</v>
+        <v>-52.271655035021</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>-27.75899079</v>
+        <v>-15.8665435306424</v>
       </c>
       <c r="C196" s="0" t="inlineStr">
         <is>
-          <t>6772 3hp</t>
-        </is>
-      </c>
-      <c r="D196" s="0" t="n">
-        <v>0</v>
+          <t>377 Quadra 17 Lote 23</t>
+        </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="n">
-        <v>-48.51013385</v>
+        <v>-52.2716003991361</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>-27.75905933</v>
+        <v>-15.8664674278404</v>
       </c>
       <c r="C197" s="0" t="inlineStr">
         <is>
-          <t>6782</t>
-        </is>
-      </c>
-      <c r="D197" s="0" t="n">
-        <v>0</v>
+          <t>387 Quadra 17 Lote 24</t>
+        </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="n">
-        <v>-48.5100916</v>
+        <v>-52.2716861296724</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>-27.75914566</v>
+        <v>-15.8670489891106</v>
       </c>
       <c r="C198" s="0" t="inlineStr">
         <is>
-          <t>6792 3hp</t>
-        </is>
-      </c>
-      <c r="D198" s="0" t="n">
-        <v>0</v>
+          <t>328 Quadra 17 lote 4</t>
+        </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="n">
-        <v>-48.50982875</v>
+        <v>-52.2718194865245</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>-27.75926167</v>
+        <v>-15.8672944800111</v>
       </c>
       <c r="C199" s="0" t="inlineStr">
         <is>
-          <t>6795 2pc hp</t>
-        </is>
-      </c>
-      <c r="D199" s="0" t="n">
-        <v>0</v>
+          <t>298 Quadra 17 lote 1</t>
+        </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="n">
-        <v>-48.50901704</v>
+        <v>-52.2716423129214</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>-27.75821642</v>
+        <v>-15.8669793488271</v>
       </c>
       <c r="C200" s="0" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D200" s="0" t="n">
-        <v>0</v>
+          <t>338 Quadra 17 lote 5</t>
+        </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="n">
-        <v>-48.51044096</v>
+        <v>-52.2715281751996</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>-27.75734147</v>
+        <v>-15.8668322100173</v>
       </c>
       <c r="C201" s="0" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D201" s="0" t="n">
-        <v>0</v>
+          <t>358 Quadra 17 lote 7</t>
+        </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="n">
-        <v>-48.51036485</v>
+        <v>-52.271480899191</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>-27.7530847</v>
+        <v>-15.8667781562187</v>
       </c>
       <c r="C202" s="0" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D202" s="0" t="n">
-        <v>0</v>
+          <t>368 Quadra 17 lote 8</t>
+        </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="n">
-        <v>-48.51017844</v>
+        <v>-52.2714187238788</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>-27.75926582</v>
+        <v>-15.8666895284884</v>
       </c>
       <c r="C203" s="0" t="inlineStr">
         <is>
-          <t>6800</t>
-        </is>
-      </c>
-      <c r="D203" s="0" t="n">
-        <v>0</v>
+          <t>378 Quadra 17 lote 9</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>CEP NÃO ENCONTRADO</t>
+        </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="n">
-        <v>-48.50926816</v>
+        <v>-52.2713713040677</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>-27.75547346</v>
+        <v>-15.8666108208329</v>
       </c>
       <c r="C204" s="0" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D204" s="0" t="n">
-        <v>0</v>
+          <t>388 Quadra 17 lote 10</t>
+        </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="n">
-        <v>-48.50867204</v>
+        <v>-52.2712726902921</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>-27.75828496</v>
+        <v>-15.8659666901427</v>
       </c>
       <c r="C205" s="0" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D205" s="0" t="n">
-        <v>0</v>
+          <t>451 Quadra 21 lote 22</t>
+        </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="n">
-        <v>-48.50912433</v>
+        <v>-52.2713398750358</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>-27.75752483</v>
+        <v>-15.8660328531373</v>
       </c>
       <c r="C206" s="0" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="D206" s="0" t="n">
-        <v>0</v>
+          <t>441 Quadra 21 lote 21</t>
+        </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="n">
-        <v>-48.51032261</v>
+        <v>-52.2713715055441</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>-27.75206017</v>
+        <v>-15.8661029921583</v>
       </c>
       <c r="C207" s="0" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="D207" s="0" t="n">
-        <v>0</v>
+          <t>431 Quadra 21 lote 20</t>
+        </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="n">
-        <v>-48.50922793</v>
+        <v>-52.2711598990424</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>-27.75548474</v>
+        <v>-15.8658439105246</v>
       </c>
       <c r="C208" s="0" t="inlineStr">
         <is>
-          <t>71a</t>
-        </is>
-      </c>
-      <c r="D208" s="0" t="n">
-        <v>0</v>
+          <t>471 Quadra 21 lote 24</t>
+        </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="n">
-        <v>-48.51040777</v>
+        <v>-52.2710838187125</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>-27.75309183</v>
+        <v>-15.8656822914691</v>
       </c>
       <c r="C209" s="0" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D209" s="0" t="n">
-        <v>0</v>
+          <t>491 Quadra 21 lote 26</t>
+        </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="n">
-        <v>-48.5103672</v>
+        <v>-52.2709834684267</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>-27.75170323</v>
+        <v>-15.8655253205436</v>
       </c>
       <c r="C210" s="0" t="inlineStr">
         <is>
-          <t>72 8hp</t>
-        </is>
-      </c>
-      <c r="D210" s="0" t="n">
-        <v>0</v>
+          <t>511 Quadra 21 lote 28</t>
+        </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="n">
-        <v>-48.5113335555838</v>
+        <v>-52.2707522939003</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>-27.7569051391289</v>
+        <v>-15.8652062430918</v>
       </c>
       <c r="C211" s="0" t="inlineStr">
         <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D211" s="0" t="n">
-        <v>0</v>
+          <t>551 Quadra 21 lote 33</t>
+        </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="n">
-        <v>-48.5104651</v>
+        <v>-52.2712094960543</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>-27.75687418</v>
+        <v>-15.8664187839617</v>
       </c>
       <c r="C212" s="0" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D212" s="0" t="n">
-        <v>0</v>
+          <t>412 Q22 l1</t>
+        </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="n">
-        <v>-48.50896508</v>
+        <v>-52.2711752902903</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>-27.75755064</v>
+        <v>-15.8663700251841</v>
       </c>
       <c r="C213" s="0" t="inlineStr">
         <is>
-          <t>74 2hp</t>
-        </is>
-      </c>
-      <c r="D213" s="0" t="n">
-        <v>0</v>
+          <t>422 q22 l2</t>
+        </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="n">
-        <v>-48.51055831</v>
+        <v>-52.271125575877</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>-27.75520436</v>
+        <v>-15.8662991594732</v>
       </c>
       <c r="C214" s="0" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D214" s="0" t="n">
-        <v>0</v>
+          <t>432 q22 l3</t>
+        </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="n">
-        <v>-48.51063073</v>
+        <v>-52.2710728718261</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>-27.75739874</v>
+        <v>-15.8662240320984</v>
       </c>
       <c r="C215" s="0" t="inlineStr">
         <is>
-          <t>75 2hp</t>
-        </is>
-      </c>
-      <c r="D215" s="0" t="n">
-        <v>0</v>
+          <t>442 q22 l4</t>
+        </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="n">
-        <v>-48.50823987</v>
+        <v>-52.2710227468407</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>-27.75764143</v>
+        <v>-15.8661525810076</v>
       </c>
       <c r="C216" s="0" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D216" s="0" t="n">
-        <v>0</v>
+          <t>452 q22 l5</t>
+        </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="n">
-        <v>-48.50919373</v>
+        <v>-52.2709546419237</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>-27.75556633</v>
+        <v>-15.8660555001694</v>
       </c>
       <c r="C217" s="0" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D217" s="0" t="n">
-        <v>0</v>
+          <t>462 q22 l6</t>
+        </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="n">
-        <v>-48.5093835</v>
+        <v>-52.2709077650761</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>-27.75862408</v>
+        <v>-15.8659886790293</v>
       </c>
       <c r="C218" s="0" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D218" s="0" t="n">
-        <v>0</v>
+          <t>472 q22 l7</t>
+        </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="n">
-        <v>-48.51050131</v>
+        <v>-52.2708173576167</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>-27.75700472</v>
+        <v>-15.8658406210885</v>
       </c>
       <c r="C219" s="0" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D219" s="0" t="n">
-        <v>0</v>
+          <t>492 q22 l9</t>
+        </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="n">
-        <v>-48.50909583</v>
+        <v>-52.2707617527862</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>-27.75654277</v>
+        <v>-15.8657613583425</v>
       </c>
       <c r="C220" s="0" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D220" s="0" t="n">
-        <v>0</v>
+          <t>502 q22 l10</t>
+        </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="n">
-        <v>-48.5104527</v>
+        <v>-52.2706698472539</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>-27.75185158</v>
+        <v>-15.865601660966</v>
       </c>
       <c r="C221" s="0" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D221" s="0" t="n">
-        <v>0</v>
+          <t>522 q22 l12</t>
+        </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="n">
-        <v>-48.50926381</v>
+        <v>-52.2705052828705</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>-27.7586585</v>
+        <v>-15.8653670793224</v>
       </c>
       <c r="C222" s="0" t="inlineStr">
         <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D222" s="0" t="n">
-        <v>0</v>
+          <t>552 q22 l15</t>
+        </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="n">
-        <v>-48.50896474</v>
+        <v>-52.2723572140254</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>-27.75329685</v>
+        <v>-15.8670507998895</v>
       </c>
       <c r="C223" s="0" t="inlineStr">
         <is>
-          <t>79 a</t>
-        </is>
-      </c>
-      <c r="D223" s="0" t="n">
-        <v>0</v>
+          <t>322 Q 15 L2</t>
+        </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="n">
-        <v>-48.5085671</v>
+        <v>-52.2721246664013</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>-27.75819091</v>
+        <v>-15.8667731427509</v>
       </c>
       <c r="C224" s="0" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D224" s="0" t="n">
-        <v>0</v>
+          <t>362 Q15 L6</t>
+        </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="n">
-        <v>-48.51031154</v>
+        <v>-52.2720747750496</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>-27.75234323</v>
+        <v>-15.8667020256597</v>
       </c>
       <c r="C225" s="0" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D225" s="0" t="n">
-        <v>0</v>
+          <t>372 QUADRA 15 LOTE 7</t>
+        </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="n">
-        <v>-48.50916557</v>
+        <v>-52.272024705474</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>-27.75866799</v>
+        <v>-15.866630654459</v>
       </c>
       <c r="C226" s="0" t="inlineStr">
         <is>
-          <t>80 3hp</t>
-        </is>
-      </c>
-      <c r="D226" s="0" t="n">
-        <v>0</v>
+          <t>382 QUADRA 15 LOTE 8</t>
+        </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="n">
-        <v>-48.51043224</v>
+        <v>-52.2719743929443</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>-27.75220259</v>
+        <v>-15.8665589368795</v>
       </c>
       <c r="C227" s="0" t="inlineStr">
         <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D227" s="0" t="n">
-        <v>0</v>
+          <t>392 QUADRA 15 LOTE 9</t>
+        </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="n">
-        <v>-48.51047851</v>
+        <v>-52.2718840915598</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>-27.75310933</v>
+        <v>-15.8664029007164</v>
       </c>
       <c r="C228" s="0" t="inlineStr">
         <is>
-          <t>84 2hp</t>
-        </is>
-      </c>
-      <c r="D228" s="0" t="n">
-        <v>0</v>
+          <t>412 QUADRA 15 LOTE 11</t>
+        </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="n">
-        <v>-48.51082921</v>
+        <v>-52.2718198244857</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>-27.75695636</v>
+        <v>-15.8663112914998</v>
       </c>
       <c r="C229" s="0" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D229" s="0" t="n">
-        <v>0</v>
+          <t>422 QUADRA 15 LOTE 12</t>
+        </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="n">
-        <v>-48.50914042</v>
+        <v>-52.2717016147685</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>-27.75548385</v>
+        <v>-15.8661258405212</v>
       </c>
       <c r="C230" s="0" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D230" s="0" t="n">
-        <v>0</v>
+          <t>446 Quadra 21 lote 1</t>
+        </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="n">
-        <v>-48.51076014</v>
+        <v>-52.2716488875602</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>-27.75696645</v>
+        <v>-15.8660506805181</v>
       </c>
       <c r="C231" s="0" t="inlineStr">
         <is>
-          <t>85a</t>
-        </is>
-      </c>
-      <c r="D231" s="0" t="n">
-        <v>0</v>
+          <t>456 Quadra 21 lote 2</t>
+        </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="n">
-        <v>-48.51066995</v>
+        <v>-52.2715435793179</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>-27.75722547</v>
+        <v>-15.8659005686706</v>
       </c>
       <c r="C232" s="0" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D232" s="0" t="n">
-        <v>0</v>
+          <t>476 Quadra 21 lote 4</t>
+        </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="n">
-        <v>-48.50905392</v>
+        <v>-52.2714383178877</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>-27.75558829</v>
+        <v>-15.8657505232771</v>
       </c>
       <c r="C233" s="0" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D233" s="0" t="n">
-        <v>0</v>
+          <t>496 Quadra 21 lote 6</t>
+        </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="n">
-        <v>-48.5106371</v>
+        <v>-52.2713414407766</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>-27.75141868</v>
+        <v>-15.8656124291075</v>
       </c>
       <c r="C234" s="0" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D234" s="0" t="n">
-        <v>0</v>
+          <t>516 Quadra 21 lote 18</t>
+        </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="n">
-        <v>-48.51070751</v>
+        <v>-52.2712364524191</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>-27.75517142</v>
+        <v>-15.8654627724418</v>
       </c>
       <c r="C235" s="0" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D235" s="0" t="n">
-        <v>0</v>
+          <t>536 Quadra 21 lote 20</t>
+        </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="n">
-        <v>-48.51045236</v>
+        <v>-52.2711274966008</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>-27.75236697</v>
+        <v>-15.8653074600327</v>
       </c>
       <c r="C236" s="0" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D236" s="0" t="n">
-        <v>0</v>
+          <t>556 Quadra 21 lote 22</t>
+        </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="n">
-        <v>-48.51072058</v>
+        <v>-52.2710749741478</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>-27.75737886</v>
+        <v>-15.865232591152</v>
       </c>
       <c r="C237" s="0" t="inlineStr">
         <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D237" s="0" t="n">
-        <v>0</v>
+          <t>566 Quadra 21 lote 23</t>
+        </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="n">
-        <v>-48.50880548</v>
+        <v>-52.2710250528525</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>-27.75815768</v>
+        <v>-15.8651614300657</v>
       </c>
       <c r="C238" s="0" t="inlineStr">
         <is>
-          <t>9 2hp</t>
-        </is>
-      </c>
-      <c r="D238" s="0" t="n">
-        <v>0</v>
+          <t>576 Quadra 21 lote 24</t>
+        </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="n">
-        <v>-48.51070046</v>
+        <v>-52.270971921702</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>-27.75304049</v>
+        <v>-15.8650856933736</v>
       </c>
       <c r="C239" s="0" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D239" s="0" t="n">
-        <v>0</v>
+          <t>586 Quadra 21 lote 25</t>
+        </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="n">
-        <v>-48.51055428</v>
+        <v>-52.2709141061481</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>-27.75198214</v>
+        <v>-15.8650032791405</v>
       </c>
       <c r="C240" s="0" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D240" s="0" t="n">
-        <v>0</v>
+          <t>596 Quadra 21 lote 26</t>
+        </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="n">
-        <v>-48.51058412</v>
+        <v>-52.2708645391157</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>-27.75166881</v>
+        <v>-15.8649326228465</v>
       </c>
       <c r="C241" s="0" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D241" s="0" t="n">
-        <v>0</v>
+          <t>606 Quadra 21 lote 27</t>
+        </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="n">
-        <v>-48.51062167</v>
+        <v>-52.271705134146</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>-27.75215571</v>
+        <v>-15.865601054524</v>
       </c>
       <c r="C242" s="0" t="inlineStr">
         <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D242" s="0" t="n">
-        <v>0</v>
+          <t>495 Q20 L21</t>
+        </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="n">
-        <v>-48.50904185</v>
+        <v>-52.2715895020044</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>-27.75550313</v>
+        <v>-15.8654362200199</v>
       </c>
       <c r="C243" s="0" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D243" s="0" t="n">
-        <v>0</v>
+          <t>515 Q20 L23</t>
+        </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="n">
-        <v>-48.51073869</v>
+        <v>-52.271541368422</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>-27.75214325</v>
+        <v>-15.8653676076871</v>
       </c>
       <c r="C244" s="0" t="inlineStr">
         <is>
-          <t>93 3hp</t>
-        </is>
-      </c>
-      <c r="D244" s="0" t="n">
-        <v>0</v>
+          <t>525 Q20 L24</t>
+        </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="n">
-        <v>-48.51063006</v>
+        <v>-52.2714259611648</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>-27.75233374</v>
+        <v>-15.8652228025731</v>
       </c>
       <c r="C245" s="0" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="D245" s="0" t="n">
-        <v>0</v>
+          <t>545 Q20 L26</t>
+        </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="n">
-        <v>-48.50880783</v>
+        <v>-52.2713806840745</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>-27.75331317</v>
+        <v>-15.8651582618702</v>
       </c>
       <c r="C246" s="0" t="inlineStr">
         <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="D246" s="0" t="n">
-        <v>0</v>
+          <t>555 Q20 L27</t>
+        </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="n">
-        <v>-48.51055127</v>
+        <v>-52.271326193652</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>-27.75184387</v>
+        <v>-15.8650805878595</v>
       </c>
       <c r="C247" s="0" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D247" s="0" t="n">
-        <v>0</v>
+          <t>565 Q20 L28</t>
+        </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="n">
-        <v>-48.51055562</v>
+        <v>-52.2712780123337</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>-27.75286455</v>
+        <v>-15.865011907174</v>
       </c>
       <c r="C248" s="0" t="inlineStr">
         <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D248" s="0" t="n">
-        <v>0</v>
+          <t>575 Q20 L29</t>
+        </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="n">
-        <v>-48.51076685</v>
+        <v>-52.271220183817</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>-27.75140681</v>
+        <v>-15.8649294746885</v>
       </c>
       <c r="C249" s="0" t="inlineStr">
         <is>
-          <t>98 3hp</t>
-        </is>
-      </c>
-      <c r="D249" s="0" t="n">
-        <v>0</v>
+          <t>585 Q20 L30</t>
+        </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="n">
-        <v>-48.50902945</v>
+        <v>-52.2715425936759</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>-27.75869173</v>
+        <v>-15.8649406179912</v>
       </c>
       <c r="C250" s="0" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D250" s="0" t="n">
-        <v>0</v>
+          <t>602 Quadra 20 lote 13</t>
+        </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="n">
-        <v>-48.5105670224388</v>
+        <v>-52.2714392408446</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>-27.7566485431929</v>
+        <v>-15.8647932925132</v>
       </c>
       <c r="C251" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D251" s="0" t="n">
-        <v>0</v>
+          <t>622 Quadra 2- lote 15</t>
+        </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="n">
-        <v>-48.5103868447902</v>
+        <v>-52.2717449132558</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>-27.7566297147911</v>
+        <v>-15.8652290159912</v>
       </c>
       <c r="C252" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D252" s="0" t="n">
-        <v>0</v>
+          <t>562 Quadra 20 lote 9</t>
+        </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="n">
-        <v>-48.5102545787226</v>
+        <v>-52.2718013599485</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>-27.7566365472295</v>
+        <v>-15.8653094781823</v>
       </c>
       <c r="C253" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D253" s="0" t="n">
-        <v>0</v>
+          <t>552 Quadra 20 lote 8</t>
+        </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="n">
-        <v>-48.51005673</v>
+        <v>-52.2718465820113</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>-27.75885313</v>
+        <v>-15.8653739401173</v>
       </c>
       <c r="C254" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D254" s="0" t="n">
-        <v>0</v>
+          <t>542 Quadra 20 lote 7</t>
+        </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="n">
-        <v>-48.50976739</v>
+        <v>-52.2719034214922</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>-27.75895103</v>
+        <v>-15.8654549620669</v>
       </c>
       <c r="C255" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D255" s="0" t="n">
-        <v>0</v>
+          <t>532 Quadra 20 lote 6</t>
+        </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="n">
-        <v>-48.50993369</v>
+        <v>-52.2719552193894</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>-27.75807431</v>
+        <v>-15.8655287974112</v>
       </c>
       <c r="C256" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D256" s="0" t="n">
-        <v>0</v>
+          <t>522 Quadra 20 lote 5</t>
+        </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="n">
-        <v>-48.50993905</v>
+        <v>-52.2720161637242</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>-27.75786692</v>
+        <v>-15.8656156704659</v>
       </c>
       <c r="C257" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D257" s="0" t="n">
-        <v>0</v>
+          <t>512 Quadra 20 lote 4</t>
+        </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="n">
-        <v>-48.50948676</v>
+        <v>-52.2720634991029</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>-27.7580034</v>
+        <v>-15.8656831445813</v>
       </c>
       <c r="C258" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D258" s="0" t="n">
-        <v>0</v>
+          <t>502 Quadra 20 lote 3</t>
+        </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="n">
-        <v>-48.50926649</v>
+        <v>-52.2721152613874</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>-27.75803336</v>
+        <v>-15.8657569289566</v>
       </c>
       <c r="C259" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D259" s="0" t="n">
-        <v>0</v>
+          <t>492 Quadra 20 lote 2</t>
+        </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="n">
-        <v>-48.50898184</v>
+        <v>-52.2721622482796</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>-27.75810902</v>
+        <v>-15.8658239062076</v>
       </c>
       <c r="C260" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D260" s="0" t="n">
-        <v>0</v>
+          <t>482 Quadra 20 lote 1</t>
+        </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="n">
-        <v>-48.50883868</v>
+        <v>-52.2726388071874</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>-27.75826805</v>
+        <v>-15.8665494567314</v>
       </c>
       <c r="C261" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D261" s="0" t="n">
-        <v>0</v>
+          <t>386 Quadra13 lote 1</t>
+        </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="n">
-        <v>-48.51026393</v>
+        <v>-52.2725895468789</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>-27.75747232</v>
+        <v>-15.8664792394459</v>
       </c>
       <c r="C262" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D262" s="0" t="n">
-        <v>0</v>
+          <t>396 Quadra 13 lote 2</t>
+        </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="n">
-        <v>-48.50999773</v>
+        <v>-52.2725403823613</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>-27.7552907</v>
+        <v>-15.866409158644</v>
       </c>
       <c r="C263" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D263" s="0" t="n">
-        <v>0</v>
+          <t>406 Quadra 13 lote 3</t>
+        </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="n">
-        <v>-48.51002287</v>
+        <v>-52.2722816497447</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>-27.75508716</v>
+        <v>-15.8660250421458</v>
       </c>
       <c r="C264" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D264" s="0" t="n">
-        <v>0</v>
+          <t>456 Quadra 13 lote 8</t>
+        </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="n">
-        <v>-48.51186723</v>
+        <v>-52.2723850124722</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>-27.75279423</v>
+        <v>-15.866607800773</v>
       </c>
       <c r="C265" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D265" s="0" t="n">
-        <v>0</v>
+          <t>361 Quadra 13 lote 10</t>
+        </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="n">
-        <v>-48.50718711</v>
+        <v>-52.2722814255439</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>-27.75357368</v>
+        <v>-15.8664601441</v>
       </c>
       <c r="C266" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D266" s="0" t="n">
-        <v>0</v>
+          <t>381 Quadra 13 lote 12</t>
+        </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="n">
-        <v>-48.50756429</v>
+        <v>-52.2721236173251</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>-27.75351671</v>
+        <v>-15.8662351978663</v>
       </c>
       <c r="C267" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D267" s="0" t="n">
-        <v>0</v>
+          <t>411 Quadra 13 lote 15</t>
+        </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="n">
-        <v>-48.50735608</v>
+        <v>-52.2723833148192</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>-27.75371758</v>
+        <v>-15.8656925313701</v>
       </c>
       <c r="C268" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D268" s="0" t="n">
-        <v>0</v>
+          <t>489 Quadra 19 lote 11</t>
+        </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="n">
-        <v>-48.51211499</v>
+        <v>-52.2722396043259</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>-27.75171806</v>
+        <v>-15.8654876801016</v>
       </c>
       <c r="C269" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D269" s="0" t="n">
-        <v>0</v>
+          <t>519 Quadra 19 lote 14</t>
+        </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="n">
-        <v>-48.50991491</v>
+        <v>-52.2721915176333</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>-27.7519946</v>
+        <v>-15.865396336926</v>
       </c>
       <c r="C270" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D270" s="0" t="n">
-        <v>0</v>
+          <t>529 Quadra 19 lote 15</t>
+        </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="n">
-        <v>-48.51015095</v>
+        <v>-52.2721399691288</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>-27.75147506</v>
+        <v>-15.8653228572224</v>
       </c>
       <c r="C271" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D271" s="0" t="n">
-        <v>0</v>
+          <t>539 Quadra 19 lote 16</t>
+        </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="n">
-        <v>-48.51051472</v>
+        <v>-52.2720847456859</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>-27.75146408</v>
+        <v>-15.865244139013</v>
       </c>
       <c r="C272" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D272" s="0" t="n">
-        <v>0</v>
+          <t>549 Quadra 19 lote 17</t>
+        </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="n">
-        <v>-48.51093482</v>
+        <v>-52.2719780650081</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>-27.75134718</v>
+        <v>-15.8650920709188</v>
       </c>
       <c r="C273" s="0" t="inlineStr">
         <is>
-          <t>Lv</t>
-        </is>
-      </c>
-      <c r="D273" s="0" t="n">
-        <v>0</v>
+          <t>569 Quadra 19 lote 19</t>
+        </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="n">
-        <v>-48.5115068</v>
+        <v>-52.2718843423967</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>-27.75502782</v>
+        <v>-15.8649430656551</v>
       </c>
       <c r="C274" s="0" t="inlineStr">
         <is>
-          <t>Sem acesso ver video</t>
-        </is>
-      </c>
-      <c r="D274" s="0" t="n">
-        <v>0</v>
+          <t>589 Quadra 19 lote 21</t>
+        </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="n">
-        <v>-48.5088893</v>
+        <v>-52.2729482548973</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>-27.75657095</v>
+        <v>-15.8664601641309</v>
       </c>
       <c r="C275" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D275" s="0" t="n">
-        <v>0</v>
+          <t>383 Quadra 11 lote 14</t>
+        </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="n">
-        <v>-48.50994274</v>
+        <v>-52.2728927234543</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>-27.75821316</v>
+        <v>-15.8663810079924</v>
       </c>
       <c r="C276" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D276" s="0" t="n">
-        <v>0</v>
+          <t>393 Quadra 11 lote 15</t>
+        </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="n">
-        <v>-48.50911997</v>
+        <v>-52.272797062142</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>-27.75820159</v>
+        <v>-15.8662446493883</v>
       </c>
       <c r="C277" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D277" s="0" t="n">
-        <v>0</v>
+          <t>413 Quadra 11 lote 17</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>CEP NÃO ENCONTRADO</t>
+        </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="n">
-        <v>-48.50893959</v>
+        <v>-52.2725842658857</v>
       </c>
       <c r="B278" s="0" t="n">
-        <v>-27.75826479</v>
+        <v>-15.8659451951583</v>
       </c>
       <c r="C278" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D278" s="0" t="n">
-        <v>0</v>
+          <t>453 Quadra 11 lote 21</t>
+        </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="n">
-        <v>-48.51120304</v>
+        <v>-52.2725410371568</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>-27.7573032</v>
+        <v>-15.8658709403245</v>
       </c>
       <c r="C279" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D279" s="0" t="n">
-        <v>0</v>
+          <t>463 Quadra 11 lote 22</t>
+        </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="n">
-        <v>-48.51133548</v>
+        <v>-52.2730764129738</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>-27.75714091</v>
+        <v>-15.8661736490745</v>
       </c>
       <c r="C280" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D280" s="0" t="n">
-        <v>0</v>
+          <t>432 Quadra 11 lote 5</t>
+        </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="n">
-        <v>-48.50879408</v>
+        <v>-52.2730277247687</v>
       </c>
       <c r="B281" s="0" t="n">
-        <v>-27.75758565</v>
+        <v>-15.8661042474839</v>
       </c>
       <c r="C281" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D281" s="0" t="n">
-        <v>0</v>
+          <t>442 Quadra 11 lote 6</t>
+        </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="n">
-        <v>-48.50862242</v>
+        <v>-52.2729689289348</v>
       </c>
       <c r="B282" s="0" t="n">
-        <v>-27.75770759</v>
+        <v>-15.8660204381054</v>
       </c>
       <c r="C282" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D282" s="0" t="n">
-        <v>0</v>
+          <t>452 Quadra 11 lote 7</t>
+        </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="n">
-        <v>-48.50855805</v>
+        <v>-52.2729204719068</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>-27.75742306</v>
+        <v>-15.8659513659127</v>
       </c>
       <c r="C283" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D283" s="0" t="n">
-        <v>0</v>
+          <t>462 Quadra 11 lote 8</t>
+        </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="n">
-        <v>-48.50870457</v>
+        <v>-52.2728683794801</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>-27.75779927</v>
+        <v>-15.8658771116419</v>
       </c>
       <c r="C284" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D284" s="0" t="n">
-        <v>0</v>
+          <t>472 Quadra 11 lote 9</t>
+        </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="n">
-        <v>-48.50994475</v>
+        <v>-52.2728162347756</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>-27.75730083</v>
+        <v>-15.8658027827852</v>
       </c>
       <c r="C285" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D285" s="0" t="n">
-        <v>0</v>
+          <t>482 Quadra 11 lote 10</t>
+        </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="n">
-        <v>-48.51063509</v>
+        <v>-52.2727642826426</v>
       </c>
       <c r="B286" s="0" t="n">
-        <v>-27.75686172</v>
+        <v>-15.8657287283595</v>
       </c>
       <c r="C286" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D286" s="0" t="n">
-        <v>0</v>
+          <t>492 Quadra 11 lote 11</t>
+        </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="n">
-        <v>-48.51098478</v>
+        <v>-52.272294349569</v>
       </c>
       <c r="B287" s="0" t="n">
-        <v>-27.75692195</v>
+        <v>-15.865008153428</v>
       </c>
       <c r="C287" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D287" s="0" t="n">
-        <v>0</v>
+          <t>578 Quadra 19 lote 8</t>
+        </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="n">
-        <v>-48.50955784</v>
+        <v>-52.2726693486889</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>-27.75671901</v>
+        <v>-15.8650769452257</v>
       </c>
       <c r="C288" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D288" s="0" t="n">
-        <v>0</v>
+          <t>577 Quadra 18 lote 5</t>
+        </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="n">
-        <v>-48.50885779</v>
+        <v>-52.272777274584</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>-27.75668311</v>
+        <v>-15.8652307872464</v>
       </c>
       <c r="C289" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D289" s="0" t="n">
-        <v>0</v>
+          <t>557 Quadra 18 lote 3</t>
+        </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="n">
-        <v>-48.50893524</v>
+        <v>-52.2728272338324</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>-27.75667153</v>
+        <v>-15.8653020011214</v>
       </c>
       <c r="C290" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D290" s="0" t="n">
-        <v>0</v>
+          <t>547 Quadra 18 lote 2</t>
+        </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="n">
-        <v>-48.50994375</v>
+        <v>-52.2659994884326</v>
       </c>
       <c r="B291" s="0" t="n">
-        <v>-27.75613392</v>
+        <v>-15.8869961742004</v>
       </c>
       <c r="C291" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D291" s="0" t="n">
-        <v>0</v>
+          <t>Q154 L13 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="n">
-        <v>-48.50910287</v>
+        <v>-52.2656267403861</v>
       </c>
       <c r="B292" s="0" t="n">
-        <v>-27.75584345</v>
+        <v>-15.8869101485961</v>
       </c>
       <c r="C292" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D292" s="0" t="n">
-        <v>0</v>
+          <t>Q152 L3 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="n">
-        <v>-48.50897077</v>
+        <v>-52.26525739787</v>
       </c>
       <c r="B293" s="0" t="n">
-        <v>-27.75582921</v>
+        <v>-15.8871214812463</v>
       </c>
       <c r="C293" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D293" s="0" t="n">
-        <v>0</v>
+          <t>Q152 L 6/7 - VERFICADO</t>
+        </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="n">
-        <v>-48.50933421</v>
+        <v>-52.2649506628747</v>
       </c>
       <c r="B294" s="0" t="n">
-        <v>-27.75542926</v>
+        <v>-15.8873153510043</v>
       </c>
       <c r="C294" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D294" s="0" t="n">
-        <v>0</v>
+          <t>Q152 L9 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="n">
-        <v>-48.5088541</v>
+        <v>-52.2656633243105</v>
       </c>
       <c r="B295" s="0" t="n">
-        <v>-27.75553726</v>
+        <v>-15.8870912795686</v>
       </c>
       <c r="C295" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D295" s="0" t="n">
-        <v>0</v>
+          <t>Q152 L2 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="n">
-        <v>-48.51138711</v>
+        <v>-52.272961306892</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>-27.75489875</v>
+        <v>-15.8655237651813</v>
       </c>
       <c r="C296" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D296" s="0" t="n">
-        <v>0</v>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>CEP NÃO ENCONTRADO</t>
+        </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="0" t="n">
-        <v>-48.50958098</v>
-      </c>
-      <c r="B297" s="0" t="n">
-        <v>-27.75403624</v>
-      </c>
       <c r="C297" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D297" s="0" t="n">
-        <v>0</v>
+          <t>AREA DE INVASÃO</t>
+        </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="n">
-        <v>-48.51027533</v>
+        <v>-52.2650900380907</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>-27.75333008</v>
+        <v>-15.8865015603072</v>
       </c>
       <c r="C298" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D298" s="0" t="n">
-        <v>0</v>
+          <t>1830</t>
+        </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="n">
-        <v>-48.51116013</v>
+        <v>-52.2644549526719</v>
       </c>
       <c r="B299" s="0" t="n">
-        <v>-27.75296009</v>
+        <v>-15.8866339991891</v>
       </c>
       <c r="C299" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D299" s="0" t="n">
-        <v>0</v>
+          <t>Q3 L6</t>
+        </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="n">
-        <v>-48.50999035</v>
+        <v>-52.2644384653344</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>-27.75276723</v>
+        <v>-15.8854468135375</v>
       </c>
       <c r="C300" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D300" s="0" t="n">
-        <v>0</v>
+          <t>174</t>
+        </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="n">
-        <v>-48.5099642</v>
+        <v>-52.2645020879538</v>
       </c>
       <c r="B301" s="0" t="n">
-        <v>-27.75319805</v>
+        <v>-15.8855375024788</v>
       </c>
       <c r="C301" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D301" s="0" t="n">
-        <v>0</v>
+          <t>162</t>
+        </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="n">
-        <v>-48.51006009</v>
+        <v>-52.2643699036845</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>-27.75309628</v>
+        <v>-15.8876867177766</v>
       </c>
       <c r="C302" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D302" s="0" t="n">
+          <t>Q152 L13 - 10hp (66). 996078-2505</t>
+        </is>
+      </c>
+      <c r="E302" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="n">
-        <v>-48.50947335</v>
+        <v>-52.2646902656217</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>-27.75320368</v>
+        <v>-15.8852766580973</v>
       </c>
       <c r="C303" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D303" s="0" t="n">
-        <v>0</v>
+          <t>143</t>
+        </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="n">
-        <v>-48.50766186</v>
+        <v>-52.264982826483</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>-27.75365646</v>
+        <v>-15.8856313765133</v>
       </c>
       <c r="C304" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D304" s="0" t="n">
-        <v>0</v>
+          <t>91</t>
+        </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="n">
-        <v>-48.51133782</v>
+        <v>-52.2647091868083</v>
       </c>
       <c r="B305" s="0" t="n">
-        <v>-27.75256161</v>
+        <v>-15.8858162164877</v>
       </c>
       <c r="C305" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D305" s="0" t="n">
-        <v>0</v>
+          <t>104</t>
+        </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="n">
-        <v>-48.51079468</v>
+        <v>-52.2652929553325</v>
       </c>
       <c r="B306" s="0" t="n">
-        <v>-27.75193763</v>
+        <v>-15.886030979371</v>
       </c>
       <c r="C306" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D306" s="0" t="n">
-        <v>0</v>
+          <t>Q87 L9 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="n">
-        <v>-48.51205733</v>
+        <v>-52.2653149294786</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>-27.75158365</v>
+        <v>-15.887415591038</v>
       </c>
       <c r="C307" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D307" s="0" t="n">
-        <v>0</v>
+          <t>Q152 L20 -  - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="n">
-        <v>-48.51162717</v>
+        <v>-52.2648138933124</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>-27.75164923</v>
+        <v>-15.8878206572171</v>
       </c>
       <c r="C308" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D308" s="0" t="n">
-        <v>0</v>
+          <t>1152</t>
+        </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="n">
-        <v>-48.50961953</v>
+        <v>-52.2648902440551</v>
       </c>
       <c r="B309" s="0" t="n">
-        <v>-27.7519038</v>
+        <v>-15.8877669169735</v>
       </c>
       <c r="C309" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D309" s="0" t="n">
-        <v>0</v>
+          <t>1164</t>
+        </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="n">
-        <v>-48.51121143</v>
+        <v>-52.2659308668026</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>-27.75126083</v>
+        <v>-15.8877854290914</v>
       </c>
       <c r="C310" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D310" s="0" t="n">
-        <v>0</v>
+          <t>Q151 L23 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="n">
-        <v>-48.51161711</v>
+        <v>-52.2658085451089</v>
       </c>
       <c r="B311" s="0" t="n">
-        <v>-27.75121098</v>
+        <v>-15.8878682219562</v>
       </c>
       <c r="C311" s="0" t="inlineStr">
         <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="D311" s="0" t="n">
-        <v>0</v>
+          <t>Q151 L22 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="n">
-        <v>-48.51002254</v>
+        <v>-52.2657121665987</v>
       </c>
       <c r="B312" s="0" t="n">
-        <v>-27.75872169</v>
+        <v>-15.8879334552024</v>
       </c>
       <c r="C312" s="0" t="inlineStr">
         <is>
-          <t>Sn 2hp</t>
-        </is>
-      </c>
-      <c r="D312" s="0" t="n">
-        <v>0</v>
+          <t>Q151 L21 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="n">
-        <v>-48.50888126</v>
+        <v>-52.2654673100205</v>
       </c>
       <c r="B313" s="0" t="n">
-        <v>-27.75814195</v>
+        <v>-15.8880991846019</v>
       </c>
       <c r="C313" s="0" t="inlineStr">
         <is>
-          <t>Sn 2hp</t>
-        </is>
-      </c>
-      <c r="D313" s="0" t="n">
-        <v>0</v>
+          <t>- VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="n">
-        <v>-48.50846753</v>
+        <v>-52.2653695555576</v>
       </c>
       <c r="B314" s="0" t="n">
-        <v>-27.75826568</v>
+        <v>-15.8881653488481</v>
       </c>
       <c r="C314" s="0" t="inlineStr">
         <is>
-          <t>Sn 2hp</t>
-        </is>
-      </c>
-      <c r="D314" s="0" t="n">
-        <v>0</v>
+          <t>Q151 L18 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="n">
-        <v>-48.51054892</v>
+        <v>-52.2651170310536</v>
       </c>
       <c r="B315" s="0" t="n">
-        <v>-27.75729133</v>
+        <v>-15.8883362674274</v>
       </c>
       <c r="C315" s="0" t="inlineStr">
         <is>
-          <t>Sn 2hp</t>
-        </is>
-      </c>
-      <c r="D315" s="0" t="n">
-        <v>0</v>
+          <t>Q151 L17 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="n">
-        <v>-48.51064816</v>
+        <v>-52.2650118414832</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>-27.75699286</v>
+        <v>-15.8884074637198</v>
       </c>
       <c r="C316" s="0" t="inlineStr">
         <is>
-          <t>Sn 2hp</t>
-        </is>
-      </c>
-      <c r="D316" s="0" t="n">
-        <v>0</v>
+          <t>Q151 L16 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="n">
-        <v>-48.50940663</v>
+        <v>-52.2657785178556</v>
       </c>
       <c r="B317" s="0" t="n">
-        <v>-27.7557761</v>
+        <v>-15.8875922000594</v>
       </c>
       <c r="C317" s="0" t="inlineStr">
         <is>
-          <t>Sn 2hp</t>
-        </is>
-      </c>
-      <c r="D317" s="0" t="n">
-        <v>0</v>
+          <t>q151 l5 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="n">
-        <v>-48.50926112</v>
+        <v>-52.2656893740072</v>
       </c>
       <c r="B318" s="0" t="n">
-        <v>-27.7558025</v>
+        <v>-15.8876525366323</v>
       </c>
       <c r="C318" s="0" t="inlineStr">
         <is>
-          <t>Sn 2hp</t>
-        </is>
-      </c>
-      <c r="D318" s="0" t="n">
-        <v>0</v>
+          <t>q151 l6 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="n">
-        <v>-48.50917932</v>
+        <v>-52.2648740135905</v>
       </c>
       <c r="B319" s="0" t="n">
-        <v>-27.75582594</v>
+        <v>-15.8881607372107</v>
       </c>
       <c r="C319" s="0" t="inlineStr">
         <is>
-          <t>Sn 2hp</t>
-        </is>
-      </c>
-      <c r="D319" s="0" t="n">
-        <v>0</v>
+          <t>1123</t>
+        </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="n">
-        <v>-48.51061799</v>
+        <v>-52.2652620619195</v>
       </c>
       <c r="B320" s="0" t="n">
-        <v>-27.75304109</v>
+        <v>-15.8879446079064</v>
       </c>
       <c r="C320" s="0" t="inlineStr">
         <is>
-          <t>Sn 2hp</t>
-        </is>
-      </c>
-      <c r="D320" s="0" t="n">
-        <v>0</v>
+          <t>1163 - VERIFICADO</t>
+        </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="n">
-        <v>-48.50802999</v>
+        <v>-52.2661537215029</v>
       </c>
       <c r="B321" s="0" t="n">
-        <v>-27.75357605</v>
+        <v>-15.8877431149866</v>
       </c>
       <c r="C321" s="0" t="inlineStr">
         <is>
-          <t>Sn 2hp</t>
-        </is>
-      </c>
-      <c r="D321" s="0" t="n">
-        <v>0</v>
+          <t>Q151 L1</t>
+        </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="n">
-        <v>-48.50945961</v>
+        <v>-52.2660726439481</v>
       </c>
       <c r="B322" s="0" t="n">
-        <v>-27.75813394</v>
+        <v>-15.8876323048338</v>
       </c>
       <c r="C322" s="0" t="inlineStr">
         <is>
-          <t>Sn 4hp</t>
-        </is>
-      </c>
-      <c r="D322" s="0" t="n">
-        <v>0</v>
+          <t>Q151 L2</t>
+        </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="n">
-        <v>-48.50952633</v>
+        <v>-52.2659859624539</v>
       </c>
       <c r="B323" s="0" t="n">
-        <v>-27.75846654</v>
+        <v>-15.8875138355079</v>
       </c>
       <c r="C323" s="0" t="inlineStr">
         <is>
-          <t>Sn 5hp</t>
-        </is>
-      </c>
-      <c r="D323" s="0" t="n">
-        <v>0</v>
+          <t>Q151 L3</t>
+        </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="n">
-        <v>-48.50970402</v>
+        <v>-52.264059988746</v>
       </c>
       <c r="B324" s="0" t="n">
-        <v>-27.75573545</v>
+        <v>-15.8878267539773</v>
       </c>
       <c r="C324" s="0" t="inlineStr">
         <is>
-          <t>Sn pc</t>
-        </is>
-      </c>
-      <c r="D324" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="0" t="n">
-        <v>-48.50986093</v>
-      </c>
-      <c r="B325" s="0" t="n">
-        <v>-27.75255063</v>
-      </c>
-      <c r="C325" s="0" t="inlineStr">
-        <is>
-          <t>Sn pc 4hp</t>
-        </is>
-      </c>
-      <c r="D325" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="0" t="n">
-        <v>-48.51000577</v>
-      </c>
-      <c r="B326" s="0" t="n">
-        <v>-27.75865108</v>
-      </c>
-      <c r="C326" s="0" t="inlineStr">
-        <is>
-          <t>Sn pc hp</t>
-        </is>
-      </c>
-      <c r="D326" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="0" t="n">
-        <v>-48.5097238</v>
-      </c>
-      <c r="B327" s="0" t="n">
-        <v>-27.75853359</v>
-      </c>
-      <c r="C327" s="0" t="inlineStr">
-        <is>
-          <t>Sn pc hp</t>
-        </is>
-      </c>
-      <c r="D327" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="0" t="n">
-        <v>-48.50997861</v>
-      </c>
-      <c r="B328" s="0" t="n">
-        <v>-27.75835409</v>
-      </c>
-      <c r="C328" s="0" t="inlineStr">
-        <is>
-          <t>Sn pc hp</t>
-        </is>
-      </c>
-      <c r="D328" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="0" t="n">
-        <v>-48.50971911</v>
-      </c>
-      <c r="B329" s="0" t="n">
-        <v>-27.7584425</v>
-      </c>
-      <c r="C329" s="0" t="inlineStr">
-        <is>
-          <t>Ver foto</t>
-        </is>
-      </c>
-      <c r="D329" s="0" t="n">
-        <v>0</v>
+          <t>114</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SELECT" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,8 +45,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -416,21 +415,21 @@
   </sheetPr>
   <dimension ref="A1:E329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col width="12.5703125" bestFit="1" customWidth="1" style="1" min="1" max="2"/>
-    <col width="19.28515625" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="6.140625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="10" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="34.140625" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="24.7109375" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
-    <col width="11.42578125" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
-    <col width="3.5703125" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
-    <col width="15" customWidth="1" style="1" min="10" max="1024"/>
+    <col width="12.5703125" bestFit="1" customWidth="1" min="1" max="2"/>
+    <col width="19.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="6.140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="10" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="34.140625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="24.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="3.5703125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="1024"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -444,7 +443,7 @@
           <t>y</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -457,7 +456,7 @@
       <c r="B2" t="n">
         <v>-27.75870092</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="1" t="n">
         <v>101</v>
       </c>
       <c r="E2" t="inlineStr">
@@ -473,7 +472,7 @@
       <c r="B3" t="n">
         <v>-27.75198125</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="1" t="n">
         <v>102</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -489,7 +488,7 @@
       <c r="B4" t="n">
         <v>-27.75874394</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="1" t="n">
         <v>103</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -505,7 +504,7 @@
       <c r="B5" t="n">
         <v>-27.75181212</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="1" t="n">
         <v>103</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -521,7 +520,7 @@
       <c r="B6" t="n">
         <v>-27.75722428</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="1" t="n">
         <v>104</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -537,7 +536,7 @@
       <c r="B7" t="n">
         <v>-27.75875522</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="1" t="n">
         <v>105</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -553,7 +552,7 @@
       <c r="B8" t="n">
         <v>-27.757375</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="1" t="n">
         <v>105</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -569,7 +568,7 @@
       <c r="B9" t="n">
         <v>-27.75513434</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="1" t="n">
         <v>105</v>
       </c>
       <c r="D9" t="n">
@@ -588,7 +587,7 @@
       <c r="B10" t="n">
         <v>-27.75301913</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="1" t="n">
         <v>108</v>
       </c>
       <c r="D10" t="n">
@@ -607,7 +606,7 @@
       <c r="B11" t="n">
         <v>-27.75332474</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="1" t="n">
         <v>109</v>
       </c>
       <c r="E11" t="inlineStr">
@@ -623,7 +622,7 @@
       <c r="B12" t="n">
         <v>-27.75176554</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="1" t="n">
         <v>113</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -639,7 +638,7 @@
       <c r="B13" t="n">
         <v>-27.75692462</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="1" t="n">
         <v>115</v>
       </c>
       <c r="E13" t="inlineStr">
@@ -655,7 +654,7 @@
       <c r="B14" t="n">
         <v>-27.75510852</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="1" t="n">
         <v>117</v>
       </c>
       <c r="E14" t="inlineStr">
@@ -671,7 +670,7 @@
       <c r="B15" t="n">
         <v>-27.75340307</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="1" t="n">
         <v>118</v>
       </c>
       <c r="D15" t="n">
@@ -690,7 +689,7 @@
       <c r="B16" t="n">
         <v>-27.7528147</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="1" t="n">
         <v>118</v>
       </c>
       <c r="E16" t="inlineStr">
@@ -706,7 +705,7 @@
       <c r="B17" t="n">
         <v>-27.75231445</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="1" t="n">
         <v>12</v>
       </c>
       <c r="D17" t="n">
@@ -725,7 +724,7 @@
       <c r="B18" t="n">
         <v>-27.75722428</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="1" t="n">
         <v>120</v>
       </c>
       <c r="E18" t="inlineStr">
@@ -741,7 +740,7 @@
       <c r="B19" t="n">
         <v>-27.75681217</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="1" t="n">
         <v>120</v>
       </c>
       <c r="E19" t="inlineStr">
@@ -757,7 +756,7 @@
       <c r="B20" t="n">
         <v>-27.75736284</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="1" t="n">
         <v>121</v>
       </c>
       <c r="D20" t="n">
@@ -776,7 +775,7 @@
       <c r="B21" t="n">
         <v>-27.75228092</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="1" t="n">
         <v>123</v>
       </c>
       <c r="E21" t="inlineStr">
@@ -792,7 +791,7 @@
       <c r="B22" t="n">
         <v>-27.751778</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="1" t="n">
         <v>123</v>
       </c>
       <c r="E22" t="inlineStr">
@@ -808,7 +807,7 @@
       <c r="B23" t="n">
         <v>-27.75223345</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="1" t="n">
         <v>123</v>
       </c>
       <c r="E23" t="inlineStr">
@@ -824,7 +823,7 @@
       <c r="B24" t="n">
         <v>-27.75507856</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="1" t="n">
         <v>129</v>
       </c>
       <c r="E24" t="inlineStr">
@@ -840,7 +839,7 @@
       <c r="B25" t="n">
         <v>-27.75338942</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="1" t="n">
         <v>129</v>
       </c>
       <c r="D25" t="n">
@@ -859,7 +858,7 @@
       <c r="B26" t="n">
         <v>-27.75298679</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="1" t="n">
         <v>130</v>
       </c>
       <c r="E26" t="inlineStr">
@@ -875,7 +874,7 @@
       <c r="B27" t="n">
         <v>-27.75350336</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="1" t="n">
         <v>132</v>
       </c>
       <c r="E27" t="inlineStr">
@@ -891,7 +890,7 @@
       <c r="B28" t="n">
         <v>-27.75734177</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="1" t="n">
         <v>133</v>
       </c>
       <c r="D28" t="n">
@@ -910,7 +909,7 @@
       <c r="B29" t="n">
         <v>-27.75131632</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="1" t="n">
         <v>134</v>
       </c>
       <c r="D29" t="n">
@@ -929,7 +928,7 @@
       <c r="B30" t="n">
         <v>-27.75691097</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="1" t="n">
         <v>135</v>
       </c>
       <c r="E30" t="inlineStr">
@@ -945,7 +944,7 @@
       <c r="B31" t="n">
         <v>-27.75718808</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="1" t="n">
         <v>138</v>
       </c>
       <c r="D31" t="n">
@@ -964,7 +963,7 @@
       <c r="B32" t="n">
         <v>-27.75716642</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="1" t="n">
         <v>140</v>
       </c>
       <c r="E32" t="inlineStr">
@@ -980,7 +979,7 @@
       <c r="B33" t="n">
         <v>-27.75506075</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="1" t="n">
         <v>143</v>
       </c>
       <c r="E33" t="inlineStr">
@@ -996,7 +995,7 @@
       <c r="B34" t="n">
         <v>-27.75248595</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="1" t="n">
         <v>143</v>
       </c>
       <c r="E34" t="inlineStr">
@@ -1012,7 +1011,7 @@
       <c r="B35" t="n">
         <v>-27.75195336</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="1" t="n">
         <v>144</v>
       </c>
       <c r="E35" t="inlineStr">
@@ -1028,7 +1027,7 @@
       <c r="B36" t="n">
         <v>-27.7567736</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="1" t="n">
         <v>146</v>
       </c>
       <c r="E36" t="inlineStr">
@@ -1044,7 +1043,7 @@
       <c r="B37" t="n">
         <v>-27.75341256</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="1" t="n">
         <v>147</v>
       </c>
       <c r="D37" t="n">
@@ -1063,7 +1062,7 @@
       <c r="B38" t="n">
         <v>-27.75351048</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="1" t="n">
         <v>148</v>
       </c>
       <c r="E38" t="inlineStr">
@@ -1079,7 +1078,7 @@
       <c r="B39" t="n">
         <v>-27.75220378</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="1" t="n">
         <v>148</v>
       </c>
       <c r="D39" t="n">
@@ -1098,7 +1097,7 @@
       <c r="B40" t="n">
         <v>-27.75173794</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="1" t="n">
         <v>149</v>
       </c>
       <c r="D40" t="n">
@@ -1117,7 +1116,7 @@
       <c r="B41" t="n">
         <v>-27.75714447</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="1" t="n">
         <v>150</v>
       </c>
       <c r="E41" t="inlineStr">
@@ -1133,7 +1132,7 @@
       <c r="B42" t="n">
         <v>-27.75501862</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="1" t="n">
         <v>155</v>
       </c>
       <c r="E42" t="inlineStr">
@@ -1149,7 +1148,7 @@
       <c r="B43" t="n">
         <v>-27.75294703</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="1" t="n">
         <v>158</v>
       </c>
       <c r="E43" t="inlineStr">
@@ -1165,7 +1164,7 @@
       <c r="B44" t="n">
         <v>-27.7567697336501</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="1" t="n">
         <v>160</v>
       </c>
       <c r="E44" t="inlineStr">
@@ -1181,7 +1180,7 @@
       <c r="B45" t="n">
         <v>-27.75726404</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="1" t="n">
         <v>161</v>
       </c>
       <c r="E45" t="inlineStr">
@@ -1197,7 +1196,7 @@
       <c r="B46" t="n">
         <v>-27.75505067</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="1" t="n">
         <v>163</v>
       </c>
       <c r="E46" t="inlineStr">
@@ -1213,7 +1212,7 @@
       <c r="B47" t="n">
         <v>-27.75191093</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="1" t="n">
         <v>164</v>
       </c>
       <c r="E47" t="inlineStr">
@@ -1229,7 +1228,7 @@
       <c r="B48" t="n">
         <v>-27.75226609</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="1" t="n">
         <v>166</v>
       </c>
       <c r="E48" t="inlineStr">
@@ -1245,7 +1244,7 @@
       <c r="B49" t="n">
         <v>-27.75345025</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="1" t="n">
         <v>167</v>
       </c>
       <c r="E49" t="inlineStr">
@@ -1261,7 +1260,7 @@
       <c r="B50" t="n">
         <v>-27.75235451</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="1" t="n">
         <v>167</v>
       </c>
       <c r="E50" t="inlineStr">
@@ -1277,7 +1276,7 @@
       <c r="B51" t="n">
         <v>-27.75350128</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="1" t="n">
         <v>169</v>
       </c>
       <c r="E51" t="inlineStr">
@@ -1293,7 +1292,7 @@
       <c r="B52" t="n">
         <v>-27.75168098</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="1" t="n">
         <v>169</v>
       </c>
       <c r="E52" t="inlineStr">
@@ -1309,7 +1308,7 @@
       <c r="B53" t="n">
         <v>-27.7585775</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="1" t="n">
         <v>17</v>
       </c>
       <c r="E53" t="inlineStr">
@@ -1325,7 +1324,7 @@
       <c r="B54" t="n">
         <v>-27.75494741</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="1" t="n">
         <v>170</v>
       </c>
       <c r="E54" t="inlineStr">
@@ -1341,7 +1340,7 @@
       <c r="B55" t="n">
         <v>-27.75290104</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="1" t="n">
         <v>170</v>
       </c>
       <c r="E55" t="inlineStr">
@@ -1357,7 +1356,7 @@
       <c r="B56" t="n">
         <v>-27.75186197</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="1" t="n">
         <v>170</v>
       </c>
       <c r="E56" t="inlineStr">
@@ -1373,7 +1372,7 @@
       <c r="B57" t="n">
         <v>-27.75711866</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="1" t="n">
         <v>178</v>
       </c>
       <c r="E57" t="inlineStr">
@@ -1389,7 +1388,7 @@
       <c r="B58" t="n">
         <v>-27.75152194</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="1" t="n">
         <v>178</v>
       </c>
       <c r="E58" t="inlineStr">
@@ -1405,7 +1404,7 @@
       <c r="B59" t="n">
         <v>-27.7528687</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="1" t="n">
         <v>180</v>
       </c>
       <c r="E59" t="inlineStr">
@@ -1421,7 +1420,7 @@
       <c r="B60" t="n">
         <v>-27.75200943</v>
       </c>
-      <c r="C60" s="2" t="n">
+      <c r="C60" s="1" t="n">
         <v>180</v>
       </c>
       <c r="D60" t="n">
@@ -1440,7 +1439,7 @@
       <c r="B61" t="n">
         <v>-27.7522376</v>
       </c>
-      <c r="C61" s="2" t="n">
+      <c r="C61" s="1" t="n">
         <v>182</v>
       </c>
       <c r="D61" t="n">
@@ -1459,7 +1458,7 @@
       <c r="B62" t="n">
         <v>-27.75233255</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="1" t="n">
         <v>183</v>
       </c>
       <c r="E62" t="inlineStr">
@@ -1475,7 +1474,7 @@
       <c r="B63" t="n">
         <v>-27.75722369</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="1" t="n">
         <v>183</v>
       </c>
       <c r="D63" t="n">
@@ -1494,7 +1493,7 @@
       <c r="B64" t="n">
         <v>-27.75233403</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="1" t="n">
         <v>183</v>
       </c>
       <c r="E64" t="inlineStr">
@@ -1510,7 +1509,7 @@
       <c r="B65" t="n">
         <v>-27.75359415</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="1" t="n">
         <v>188</v>
       </c>
       <c r="E65" t="inlineStr">
@@ -1526,7 +1525,7 @@
       <c r="B66" t="n">
         <v>-27.7567011257516</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="1" t="n">
         <v>190</v>
       </c>
       <c r="E66" t="inlineStr">
@@ -1542,7 +1541,7 @@
       <c r="B67" t="n">
         <v>-27.7519673</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="1" t="n">
         <v>193</v>
       </c>
       <c r="E67" t="inlineStr">
@@ -1558,7 +1557,7 @@
       <c r="B68" t="n">
         <v>-27.756833030006</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="1" t="n">
         <v>193</v>
       </c>
       <c r="E68" t="inlineStr">
@@ -1574,7 +1573,7 @@
       <c r="B69" t="n">
         <v>-27.75708424</v>
       </c>
-      <c r="C69" s="2" t="n">
+      <c r="C69" s="1" t="n">
         <v>194</v>
       </c>
       <c r="D69" t="n">
@@ -1593,7 +1592,7 @@
       <c r="B70" t="n">
         <v>-27.75351196</v>
       </c>
-      <c r="C70" s="2" t="n">
+      <c r="C70" s="1" t="n">
         <v>195</v>
       </c>
       <c r="E70" t="inlineStr">
@@ -1609,7 +1608,7 @@
       <c r="B71" t="n">
         <v>-27.75185514</v>
       </c>
-      <c r="C71" s="2" t="n">
+      <c r="C71" s="1" t="n">
         <v>195</v>
       </c>
       <c r="E71" t="inlineStr">
@@ -1625,7 +1624,7 @@
       <c r="B72" t="n">
         <v>-27.75181212</v>
       </c>
-      <c r="C72" s="2" t="n">
+      <c r="C72" s="1" t="n">
         <v>196</v>
       </c>
       <c r="D72" t="n">
@@ -1644,7 +1643,7 @@
       <c r="B73" t="n">
         <v>-27.75816688</v>
       </c>
-      <c r="C73" s="2" t="n">
+      <c r="C73" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E73" t="inlineStr">
@@ -1660,7 +1659,7 @@
       <c r="B74" t="n">
         <v>-27.75722517</v>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="C74" s="1" t="n">
         <v>201</v>
       </c>
       <c r="E74" t="inlineStr">
@@ -1676,7 +1675,7 @@
       <c r="B75" t="n">
         <v>-27.75220764</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="C75" s="1" t="n">
         <v>202</v>
       </c>
       <c r="E75" t="inlineStr">
@@ -1692,7 +1691,7 @@
       <c r="B76" t="n">
         <v>-27.75230733</v>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="C76" s="1" t="n">
         <v>203</v>
       </c>
       <c r="E76" t="inlineStr">
@@ -1708,7 +1707,7 @@
       <c r="B77" t="n">
         <v>-27.75218657</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="1" t="n">
         <v>204</v>
       </c>
       <c r="D77" t="n">
@@ -1727,7 +1726,7 @@
       <c r="B78" t="n">
         <v>-27.7568379238411</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C78" s="1" t="n">
         <v>205</v>
       </c>
       <c r="E78" t="inlineStr">
@@ -1743,7 +1742,7 @@
       <c r="B79" t="n">
         <v>-27.7566461531067</v>
       </c>
-      <c r="C79" s="2" t="n">
+      <c r="C79" s="1" t="n">
         <v>210</v>
       </c>
       <c r="E79" t="inlineStr">
@@ -1759,7 +1758,7 @@
       <c r="B80" t="n">
         <v>-27.75226846</v>
       </c>
-      <c r="C80" s="2" t="n">
+      <c r="C80" s="1" t="n">
         <v>215</v>
       </c>
       <c r="E80" t="inlineStr">
@@ -1775,7 +1774,7 @@
       <c r="B81" t="n">
         <v>-27.75217144</v>
       </c>
-      <c r="C81" s="2" t="n">
+      <c r="C81" s="1" t="n">
         <v>216</v>
       </c>
       <c r="D81" t="n">
@@ -1794,7 +1793,7 @@
       <c r="B82" t="n">
         <v>-27.75180025</v>
       </c>
-      <c r="C82" s="2" t="n">
+      <c r="C82" s="1" t="n">
         <v>217</v>
       </c>
       <c r="E82" t="inlineStr">
@@ -1810,7 +1809,7 @@
       <c r="B83" t="n">
         <v>-27.7521563</v>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="C83" s="1" t="n">
         <v>220</v>
       </c>
       <c r="E83" t="inlineStr">
@@ -1826,7 +1825,7 @@
       <c r="B84" t="n">
         <v>-27.75707415</v>
       </c>
-      <c r="C84" s="2" t="n">
+      <c r="C84" s="1" t="n">
         <v>222</v>
       </c>
       <c r="E84" t="inlineStr">
@@ -1842,7 +1841,7 @@
       <c r="B85" t="n">
         <v>-27.75366595</v>
       </c>
-      <c r="C85" s="2" t="n">
+      <c r="C85" s="1" t="n">
         <v>222</v>
       </c>
       <c r="E85" t="inlineStr">
@@ -1858,7 +1857,7 @@
       <c r="B86" t="n">
         <v>-27.75353392</v>
       </c>
-      <c r="C86" s="2" t="n">
+      <c r="C86" s="1" t="n">
         <v>223</v>
       </c>
       <c r="E86" t="inlineStr">
@@ -1874,7 +1873,7 @@
       <c r="B87" t="n">
         <v>-27.75701481</v>
       </c>
-      <c r="C87" s="2" t="n">
+      <c r="C87" s="1" t="n">
         <v>224</v>
       </c>
       <c r="D87" t="n">
@@ -1893,7 +1892,7 @@
       <c r="B88" t="n">
         <v>-27.7569528</v>
       </c>
-      <c r="C88" s="2" t="n">
+      <c r="C88" s="1" t="n">
         <v>226</v>
       </c>
       <c r="E88" t="inlineStr">
@@ -1909,7 +1908,7 @@
       <c r="B89" t="n">
         <v>-27.75172459</v>
       </c>
-      <c r="C89" s="2" t="n">
+      <c r="C89" s="1" t="n">
         <v>233</v>
       </c>
       <c r="E89" t="inlineStr">
@@ -1925,7 +1924,7 @@
       <c r="B90" t="n">
         <v>-27.75170679</v>
       </c>
-      <c r="C90" s="2" t="n">
+      <c r="C90" s="1" t="n">
         <v>245</v>
       </c>
       <c r="E90" t="inlineStr">
@@ -1941,7 +1940,7 @@
       <c r="B91" t="n">
         <v>-27.75262748</v>
       </c>
-      <c r="C91" s="2" t="n">
+      <c r="C91" s="1" t="n">
         <v>25</v>
       </c>
       <c r="E91" t="inlineStr">
@@ -1957,7 +1956,7 @@
       <c r="B92" t="n">
         <v>-27.75282598</v>
       </c>
-      <c r="C92" s="2" t="n">
+      <c r="C92" s="1" t="n">
         <v>252</v>
       </c>
       <c r="D92" t="n">
@@ -1976,7 +1975,7 @@
       <c r="B93" t="n">
         <v>-27.75270878</v>
       </c>
-      <c r="C93" s="2" t="n">
+      <c r="C93" s="1" t="n">
         <v>254</v>
       </c>
       <c r="E93" t="inlineStr">
@@ -1992,7 +1991,7 @@
       <c r="B94" t="n">
         <v>-27.75270551</v>
       </c>
-      <c r="C94" s="2" t="n">
+      <c r="C94" s="1" t="n">
         <v>254</v>
       </c>
       <c r="E94" t="inlineStr">
@@ -2008,7 +2007,7 @@
       <c r="B95" t="n">
         <v>-27.75280817</v>
       </c>
-      <c r="C95" s="2" t="n">
+      <c r="C95" s="1" t="n">
         <v>256</v>
       </c>
       <c r="E95" t="inlineStr">
@@ -2024,7 +2023,7 @@
       <c r="B96" t="n">
         <v>-27.75277791</v>
       </c>
-      <c r="C96" s="2" t="n">
+      <c r="C96" s="1" t="n">
         <v>258</v>
       </c>
       <c r="E96" t="inlineStr">
@@ -2040,7 +2039,7 @@
       <c r="B97" t="n">
         <v>-27.75257822</v>
       </c>
-      <c r="C97" s="2" t="n">
+      <c r="C97" s="1" t="n">
         <v>258</v>
       </c>
       <c r="E97" t="inlineStr">
@@ -2056,7 +2055,7 @@
       <c r="B98" t="n">
         <v>-27.7519649799921</v>
       </c>
-      <c r="C98" s="2" t="n">
+      <c r="C98" s="1" t="n">
         <v>276</v>
       </c>
       <c r="E98" t="inlineStr">
@@ -2072,7 +2071,7 @@
       <c r="B99" t="n">
         <v>-27.75259128</v>
       </c>
-      <c r="C99" s="2" t="n">
+      <c r="C99" s="1" t="n">
         <v>276</v>
       </c>
       <c r="E99" t="inlineStr">
@@ -2088,7 +2087,7 @@
       <c r="B100" t="n">
         <v>-27.75253431</v>
       </c>
-      <c r="C100" s="2" t="n">
+      <c r="C100" s="1" t="n">
         <v>280</v>
       </c>
       <c r="E100" t="inlineStr">
@@ -2104,7 +2103,7 @@
       <c r="B101" t="n">
         <v>-27.7524809</v>
       </c>
-      <c r="C101" s="2" t="n">
+      <c r="C101" s="1" t="n">
         <v>282</v>
       </c>
       <c r="E101" t="inlineStr">
@@ -2120,7 +2119,7 @@
       <c r="B102" t="n">
         <v>-27.75167207</v>
       </c>
-      <c r="C102" s="2" t="n">
+      <c r="C102" s="1" t="n">
         <v>283</v>
       </c>
       <c r="D102" t="n">
@@ -2139,7 +2138,7 @@
       <c r="B103" t="n">
         <v>-27.75264083</v>
       </c>
-      <c r="C103" s="2" t="n">
+      <c r="C103" s="1" t="n">
         <v>284</v>
       </c>
       <c r="D103" t="n">
@@ -2158,7 +2157,7 @@
       <c r="B104" t="n">
         <v>-27.75705576</v>
       </c>
-      <c r="C104" s="2" t="n">
+      <c r="C104" s="1" t="n">
         <v>29</v>
       </c>
       <c r="E104" t="inlineStr">
@@ -2174,7 +2173,7 @@
       <c r="B105" t="n">
         <v>-27.75319627</v>
       </c>
-      <c r="C105" s="2" t="n">
+      <c r="C105" s="1" t="n">
         <v>34</v>
       </c>
       <c r="D105" t="n">
@@ -2193,7 +2192,7 @@
       <c r="B106" t="n">
         <v>-27.75193199</v>
       </c>
-      <c r="C106" s="2" t="n">
+      <c r="C106" s="1" t="n">
         <v>35</v>
       </c>
       <c r="E106" t="inlineStr">
@@ -2209,7 +2208,7 @@
       <c r="B107" t="n">
         <v>-27.75648817</v>
       </c>
-      <c r="C107" s="2" t="n">
+      <c r="C107" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D107" t="n">
@@ -2228,7 +2227,7 @@
       <c r="B108" t="n">
         <v>-27.75308203</v>
       </c>
-      <c r="C108" s="2" t="n">
+      <c r="C108" s="1" t="n">
         <v>36</v>
       </c>
       <c r="E108" t="inlineStr">
@@ -2244,7 +2243,7 @@
       <c r="B109" t="n">
         <v>-27.75704864</v>
       </c>
-      <c r="C109" s="2" t="n">
+      <c r="C109" s="1" t="n">
         <v>37</v>
       </c>
       <c r="D109" t="n">
@@ -2263,7 +2262,7 @@
       <c r="B110" t="n">
         <v>-27.75527082</v>
       </c>
-      <c r="C110" s="2" t="n">
+      <c r="C110" s="1" t="n">
         <v>37</v>
       </c>
       <c r="D110" t="n">
@@ -2282,7 +2281,7 @@
       <c r="B111" t="n">
         <v>-27.75808529</v>
       </c>
-      <c r="C111" s="2" t="n">
+      <c r="C111" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E111" t="inlineStr">
@@ -2298,7 +2297,7 @@
       <c r="B112" t="n">
         <v>-27.7566955679223</v>
       </c>
-      <c r="C112" s="2" t="n">
+      <c r="C112" s="1" t="n">
         <v>40</v>
       </c>
       <c r="E112" t="inlineStr">
@@ -2314,7 +2313,7 @@
       <c r="B113" t="n">
         <v>-27.75733584</v>
       </c>
-      <c r="C113" s="2" t="n">
+      <c r="C113" s="1" t="n">
         <v>40</v>
       </c>
       <c r="D113" t="n">
@@ -2333,7 +2332,7 @@
       <c r="B114" t="n">
         <v>-27.7532295</v>
       </c>
-      <c r="C114" s="2" t="n">
+      <c r="C114" s="1" t="n">
         <v>41</v>
       </c>
       <c r="D114" t="n">
@@ -2352,7 +2351,7 @@
       <c r="B115" t="n">
         <v>-27.7552367</v>
       </c>
-      <c r="C115" s="2" t="n">
+      <c r="C115" s="1" t="n">
         <v>43</v>
       </c>
       <c r="E115" t="inlineStr">
@@ -2368,7 +2367,7 @@
       <c r="B116" t="n">
         <v>-27.75651488</v>
       </c>
-      <c r="C116" s="2" t="n">
+      <c r="C116" s="1" t="n">
         <v>43</v>
       </c>
       <c r="D116" t="n">
@@ -2387,7 +2386,7 @@
       <c r="B117" t="n">
         <v>-27.75315977</v>
       </c>
-      <c r="C117" s="2" t="n">
+      <c r="C117" s="1" t="n">
         <v>44</v>
       </c>
       <c r="E117" t="inlineStr">
@@ -2403,7 +2402,7 @@
       <c r="B118" t="n">
         <v>-27.75254054</v>
       </c>
-      <c r="C118" s="2" t="n">
+      <c r="C118" s="1" t="n">
         <v>47</v>
       </c>
       <c r="D118" t="n">
@@ -2422,7 +2421,7 @@
       <c r="B119" t="n">
         <v>-27.75751919</v>
       </c>
-      <c r="C119" s="2" t="n">
+      <c r="C119" s="1" t="n">
         <v>48</v>
       </c>
       <c r="E119" t="inlineStr">
@@ -2438,7 +2437,7 @@
       <c r="B120" t="n">
         <v>-27.75211061</v>
       </c>
-      <c r="C120" s="2" t="n">
+      <c r="C120" s="1" t="n">
         <v>48</v>
       </c>
       <c r="E120" t="inlineStr">
@@ -2454,7 +2453,7 @@
       <c r="B121" t="n">
         <v>-27.75745451</v>
       </c>
-      <c r="C121" s="2" t="n">
+      <c r="C121" s="1" t="n">
         <v>48</v>
       </c>
       <c r="D121" t="n">
@@ -2473,7 +2472,7 @@
       <c r="B122" t="n">
         <v>-27.75207026</v>
       </c>
-      <c r="C122" s="2" t="n">
+      <c r="C122" s="1" t="n">
         <v>48</v>
       </c>
       <c r="D122" t="n">
@@ -2492,7 +2491,7 @@
       <c r="B123" t="n">
         <v>-27.75650301</v>
       </c>
-      <c r="C123" s="2" t="n">
+      <c r="C123" s="1" t="n">
         <v>51</v>
       </c>
       <c r="E123" t="inlineStr">
@@ -2508,7 +2507,7 @@
       <c r="B124" t="n">
         <v>-27.75326362</v>
       </c>
-      <c r="C124" s="2" t="n">
+      <c r="C124" s="1" t="n">
         <v>51</v>
       </c>
       <c r="E124" t="inlineStr">
@@ -2524,7 +2523,7 @@
       <c r="B125" t="n">
         <v>-27.75659499</v>
       </c>
-      <c r="C125" s="2" t="n">
+      <c r="C125" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D125" t="n">
@@ -2543,7 +2542,7 @@
       <c r="B126" t="n">
         <v>-27.7568359085092</v>
       </c>
-      <c r="C126" s="2" t="n">
+      <c r="C126" s="1" t="n">
         <v>53</v>
       </c>
       <c r="E126" t="inlineStr">
@@ -2559,7 +2558,7 @@
       <c r="B127" t="n">
         <v>-27.75693441</v>
       </c>
-      <c r="C127" s="2" t="n">
+      <c r="C127" s="1" t="n">
         <v>54</v>
       </c>
       <c r="E127" t="inlineStr">
@@ -2575,7 +2574,7 @@
       <c r="B128" t="n">
         <v>-27.75702638</v>
       </c>
-      <c r="C128" s="2" t="n">
+      <c r="C128" s="1" t="n">
         <v>55</v>
       </c>
       <c r="E128" t="inlineStr">
@@ -2591,7 +2590,7 @@
       <c r="B129" t="n">
         <v>-27.75731536</v>
       </c>
-      <c r="C129" s="2" t="n">
+      <c r="C129" s="1" t="n">
         <v>56</v>
       </c>
       <c r="E129" t="inlineStr">
@@ -2607,7 +2606,7 @@
       <c r="B130" t="n">
         <v>-27.75178898</v>
       </c>
-      <c r="C130" s="2" t="n">
+      <c r="C130" s="1" t="n">
         <v>5937</v>
       </c>
       <c r="E130" t="inlineStr">
@@ -2623,7 +2622,7 @@
       <c r="B131" t="n">
         <v>-27.7517599</v>
       </c>
-      <c r="C131" s="2" t="n">
+      <c r="C131" s="1" t="n">
         <v>5950</v>
       </c>
       <c r="E131" t="inlineStr">
@@ -2639,7 +2638,7 @@
       <c r="B132" t="n">
         <v>-27.75207501</v>
       </c>
-      <c r="C132" s="2" t="n">
+      <c r="C132" s="1" t="n">
         <v>5983</v>
       </c>
       <c r="E132" t="inlineStr">
@@ -2655,7 +2654,7 @@
       <c r="B133" t="n">
         <v>-27.75208628</v>
       </c>
-      <c r="C133" s="2" t="n">
+      <c r="C133" s="1" t="n">
         <v>5992</v>
       </c>
       <c r="E133" t="inlineStr">
@@ -2671,7 +2670,7 @@
       <c r="B134" t="n">
         <v>-27.7582817</v>
       </c>
-      <c r="C134" s="2" t="n">
+      <c r="C134" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E134" t="inlineStr">
@@ -2687,7 +2686,7 @@
       <c r="B135" t="n">
         <v>-27.75293546</v>
       </c>
-      <c r="C135" s="2" t="n">
+      <c r="C135" s="1" t="n">
         <v>60</v>
       </c>
       <c r="D135" t="n">
@@ -2706,7 +2705,7 @@
       <c r="B136" t="n">
         <v>-27.75237617</v>
       </c>
-      <c r="C136" s="2" t="n">
+      <c r="C136" s="1" t="n">
         <v>6000</v>
       </c>
       <c r="D136" t="n">
@@ -2725,7 +2724,7 @@
       <c r="B137" t="n">
         <v>-27.75235184</v>
       </c>
-      <c r="C137" s="2" t="n">
+      <c r="C137" s="1" t="n">
         <v>6009</v>
       </c>
       <c r="E137" t="inlineStr">
@@ -2741,7 +2740,7 @@
       <c r="B138" t="n">
         <v>-27.75246726</v>
       </c>
-      <c r="C138" s="2" t="n">
+      <c r="C138" s="1" t="n">
         <v>6022</v>
       </c>
       <c r="E138" t="inlineStr">
@@ -2757,7 +2756,7 @@
       <c r="B139" t="n">
         <v>-27.75252867</v>
       </c>
-      <c r="C139" s="2" t="n">
+      <c r="C139" s="1" t="n">
         <v>6025</v>
       </c>
       <c r="D139" t="n">
@@ -2776,7 +2775,7 @@
       <c r="B140" t="n">
         <v>-27.75260938</v>
       </c>
-      <c r="C140" s="2" t="n">
+      <c r="C140" s="1" t="n">
         <v>6041</v>
       </c>
       <c r="E140" t="inlineStr">
@@ -2792,7 +2791,7 @@
       <c r="B141" t="n">
         <v>-27.75261146</v>
       </c>
-      <c r="C141" s="2" t="n">
+      <c r="C141" s="1" t="n">
         <v>6059</v>
       </c>
       <c r="E141" t="inlineStr">
@@ -2808,7 +2807,7 @@
       <c r="B142" t="n">
         <v>-27.75272242</v>
       </c>
-      <c r="C142" s="2" t="n">
+      <c r="C142" s="1" t="n">
         <v>6063</v>
       </c>
       <c r="E142" t="inlineStr">
@@ -2824,7 +2823,7 @@
       <c r="B143" t="n">
         <v>-27.75278147</v>
       </c>
-      <c r="C143" s="2" t="n">
+      <c r="C143" s="1" t="n">
         <v>6073</v>
       </c>
       <c r="E143" t="inlineStr">
@@ -2840,7 +2839,7 @@
       <c r="B144" t="n">
         <v>-27.75298827</v>
       </c>
-      <c r="C144" s="2" t="n">
+      <c r="C144" s="1" t="n">
         <v>6087</v>
       </c>
       <c r="D144" t="n">
@@ -2859,7 +2858,7 @@
       <c r="B145" t="n">
         <v>-27.752977</v>
       </c>
-      <c r="C145" s="2" t="n">
+      <c r="C145" s="1" t="n">
         <v>6090</v>
       </c>
       <c r="E145" t="inlineStr">
@@ -2875,7 +2874,7 @@
       <c r="B146" t="n">
         <v>-27.75318232</v>
       </c>
-      <c r="C146" s="2" t="n">
+      <c r="C146" s="1" t="n">
         <v>6105</v>
       </c>
       <c r="E146" t="inlineStr">
@@ -2891,7 +2890,7 @@
       <c r="B147" t="n">
         <v>-27.75330812</v>
       </c>
-      <c r="C147" s="2" t="n">
+      <c r="C147" s="1" t="n">
         <v>6119</v>
       </c>
       <c r="E147" t="inlineStr">
@@ -2907,7 +2906,7 @@
       <c r="B148" t="n">
         <v>-27.75636089</v>
       </c>
-      <c r="C148" s="2" t="n">
+      <c r="C148" s="1" t="n">
         <v>6178</v>
       </c>
       <c r="E148" t="inlineStr">
@@ -2923,7 +2922,7 @@
       <c r="B149" t="n">
         <v>-27.75380214</v>
       </c>
-      <c r="C149" s="2" t="n">
+      <c r="C149" s="1" t="n">
         <v>6189</v>
       </c>
       <c r="E149" t="inlineStr">
@@ -2939,7 +2938,7 @@
       <c r="B150" t="n">
         <v>-27.75305563</v>
       </c>
-      <c r="C150" s="2" t="n">
+      <c r="C150" s="1" t="n">
         <v>62</v>
       </c>
       <c r="E150" t="inlineStr">
@@ -2955,7 +2954,7 @@
       <c r="B151" t="n">
         <v>-27.75691037</v>
       </c>
-      <c r="C151" s="2" t="n">
+      <c r="C151" s="1" t="n">
         <v>62</v>
       </c>
       <c r="D151" t="n">
@@ -2974,7 +2973,7 @@
       <c r="B152" t="n">
         <v>-27.75312921</v>
       </c>
-      <c r="C152" s="2" t="n">
+      <c r="C152" s="1" t="n">
         <v>62</v>
       </c>
       <c r="D152" t="n">
@@ -2993,7 +2992,7 @@
       <c r="B153" t="n">
         <v>-27.75521415</v>
       </c>
-      <c r="C153" s="2" t="n">
+      <c r="C153" s="1" t="n">
         <v>63</v>
       </c>
       <c r="E153" t="inlineStr">
@@ -3009,7 +3008,7 @@
       <c r="B154" t="n">
         <v>-27.75326481</v>
       </c>
-      <c r="C154" s="2" t="n">
+      <c r="C154" s="1" t="n">
         <v>63</v>
       </c>
       <c r="E154" t="inlineStr">
@@ -3025,7 +3024,7 @@
       <c r="B155" t="n">
         <v>-27.75498272</v>
       </c>
-      <c r="C155" s="2" t="n">
+      <c r="C155" s="1" t="n">
         <v>6350</v>
       </c>
       <c r="E155" t="inlineStr">
@@ -3041,7 +3040,7 @@
       <c r="B156" t="n">
         <v>-27.75539484</v>
       </c>
-      <c r="C156" s="2" t="n">
+      <c r="C156" s="1" t="n">
         <v>6353</v>
       </c>
       <c r="D156" t="n">
@@ -3060,7 +3059,7 @@
       <c r="B157" t="n">
         <v>-27.75538297</v>
       </c>
-      <c r="C157" s="2" t="n">
+      <c r="C157" s="1" t="n">
         <v>6366</v>
       </c>
       <c r="E157" t="inlineStr">
@@ -3076,7 +3075,7 @@
       <c r="B158" t="n">
         <v>-27.75554616</v>
       </c>
-      <c r="C158" s="2" t="n">
+      <c r="C158" s="1" t="n">
         <v>6371</v>
       </c>
       <c r="D158" t="n">
@@ -3095,7 +3094,7 @@
       <c r="B159" t="n">
         <v>-27.75566098</v>
       </c>
-      <c r="C159" s="2" t="n">
+      <c r="C159" s="1" t="n">
         <v>6389</v>
       </c>
       <c r="E159" t="inlineStr">
@@ -3111,7 +3110,7 @@
       <c r="B160" t="n">
         <v>-27.75534321</v>
       </c>
-      <c r="C160" s="2" t="n">
+      <c r="C160" s="1" t="n">
         <v>6396</v>
       </c>
       <c r="E160" t="inlineStr">
@@ -3127,7 +3126,7 @@
       <c r="B161" t="n">
         <v>-27.75661872</v>
       </c>
-      <c r="C161" s="2" t="n">
+      <c r="C161" s="1" t="n">
         <v>64</v>
       </c>
       <c r="D161" t="n">
@@ -3146,7 +3145,7 @@
       <c r="B162" t="n">
         <v>-27.75598557</v>
       </c>
-      <c r="C162" s="2" t="n">
+      <c r="C162" s="1" t="n">
         <v>6413</v>
       </c>
       <c r="D162" t="n">
@@ -3165,7 +3164,7 @@
       <c r="B163" t="n">
         <v>-27.75577343</v>
       </c>
-      <c r="C163" s="2" t="n">
+      <c r="C163" s="1" t="n">
         <v>6422</v>
       </c>
       <c r="D163" t="n">
@@ -3184,7 +3183,7 @@
       <c r="B164" t="n">
         <v>-27.75610247</v>
       </c>
-      <c r="C164" s="2" t="n">
+      <c r="C164" s="1" t="n">
         <v>6427</v>
       </c>
       <c r="E164" t="inlineStr">
@@ -3200,7 +3199,7 @@
       <c r="B165" t="n">
         <v>-27.75618169</v>
       </c>
-      <c r="C165" s="2" t="n">
+      <c r="C165" s="1" t="n">
         <v>6437</v>
       </c>
       <c r="D165" t="n">
@@ -3219,7 +3218,7 @@
       <c r="B166" t="n">
         <v>-27.75635347</v>
       </c>
-      <c r="C166" s="2" t="n">
+      <c r="C166" s="1" t="n">
         <v>6447</v>
       </c>
       <c r="D166" t="n">
@@ -3238,7 +3237,7 @@
       <c r="B167" t="n">
         <v>-27.75623628</v>
       </c>
-      <c r="C167" s="2" t="n">
+      <c r="C167" s="1" t="n">
         <v>6459</v>
       </c>
       <c r="E167" t="inlineStr">
@@ -3254,7 +3253,7 @@
       <c r="B168" t="n">
         <v>-27.75645138</v>
       </c>
-      <c r="C168" s="2" t="n">
+      <c r="C168" s="1" t="n">
         <v>6477</v>
       </c>
       <c r="E168" t="inlineStr">
@@ -3270,7 +3269,7 @@
       <c r="B169" t="n">
         <v>-27.75654781</v>
       </c>
-      <c r="C169" s="2" t="n">
+      <c r="C169" s="1" t="n">
         <v>6489</v>
       </c>
       <c r="E169" t="inlineStr">
@@ -3286,7 +3285,7 @@
       <c r="B170" t="n">
         <v>-27.75186494</v>
       </c>
-      <c r="C170" s="2" t="n">
+      <c r="C170" s="1" t="n">
         <v>65</v>
       </c>
       <c r="E170" t="inlineStr">
@@ -3302,7 +3301,7 @@
       <c r="B171" t="n">
         <v>-27.75652793</v>
       </c>
-      <c r="C171" s="2" t="n">
+      <c r="C171" s="1" t="n">
         <v>65</v>
       </c>
       <c r="D171" t="n">
@@ -3321,7 +3320,7 @@
       <c r="B172" t="n">
         <v>-27.75658965</v>
       </c>
-      <c r="C172" s="2" t="n">
+      <c r="C172" s="1" t="n">
         <v>6502</v>
       </c>
       <c r="D172" t="n">
@@ -3340,7 +3339,7 @@
       <c r="B173" t="n">
         <v>-27.75695221</v>
       </c>
-      <c r="C173" s="2" t="n">
+      <c r="C173" s="1" t="n">
         <v>6510</v>
       </c>
       <c r="E173" t="inlineStr">
@@ -3356,7 +3355,7 @@
       <c r="B174" t="n">
         <v>-27.75686112</v>
       </c>
-      <c r="C174" s="2" t="n">
+      <c r="C174" s="1" t="n">
         <v>6523</v>
       </c>
       <c r="E174" t="inlineStr">
@@ -3372,7 +3371,7 @@
       <c r="B175" t="n">
         <v>-27.75696022</v>
       </c>
-      <c r="C175" s="2" t="n">
+      <c r="C175" s="1" t="n">
         <v>6533</v>
       </c>
       <c r="E175" t="inlineStr">
@@ -3388,7 +3387,7 @@
       <c r="B176" t="n">
         <v>-27.75710026</v>
       </c>
-      <c r="C176" s="2" t="n">
+      <c r="C176" s="1" t="n">
         <v>6554</v>
       </c>
       <c r="E176" t="inlineStr">
@@ -3404,7 +3403,7 @@
       <c r="B177" t="n">
         <v>-27.75713646</v>
       </c>
-      <c r="C177" s="2" t="n">
+      <c r="C177" s="1" t="n">
         <v>6555</v>
       </c>
       <c r="E177" t="inlineStr">
@@ -3420,7 +3419,7 @@
       <c r="B178" t="n">
         <v>-27.7572314</v>
       </c>
-      <c r="C178" s="2" t="n">
+      <c r="C178" s="1" t="n">
         <v>6564</v>
       </c>
       <c r="D178" t="n">
@@ -3439,7 +3438,7 @@
       <c r="B179" t="n">
         <v>-27.75730617</v>
       </c>
-      <c r="C179" s="2" t="n">
+      <c r="C179" s="1" t="n">
         <v>6571</v>
       </c>
       <c r="E179" t="inlineStr">
@@ -3455,7 +3454,7 @@
       <c r="B180" t="n">
         <v>-27.75762126</v>
       </c>
-      <c r="C180" s="2" t="n">
+      <c r="C180" s="1" t="n">
         <v>6605</v>
       </c>
       <c r="D180" t="n">
@@ -3474,7 +3473,7 @@
       <c r="B181" t="n">
         <v>-27.75755153</v>
       </c>
-      <c r="C181" s="2" t="n">
+      <c r="C181" s="1" t="n">
         <v>6608</v>
       </c>
       <c r="D181" t="n">
@@ -3493,7 +3492,7 @@
       <c r="B182" t="n">
         <v>-27.75763342</v>
       </c>
-      <c r="C182" s="2" t="n">
+      <c r="C182" s="1" t="n">
         <v>6616</v>
       </c>
       <c r="E182" t="inlineStr">
@@ -3509,7 +3508,7 @@
       <c r="B183" t="n">
         <v>-27.75768801</v>
       </c>
-      <c r="C183" s="2" t="n">
+      <c r="C183" s="1" t="n">
         <v>6628</v>
       </c>
       <c r="E183" t="inlineStr">
@@ -3525,7 +3524,7 @@
       <c r="B184" t="n">
         <v>-27.7578414</v>
       </c>
-      <c r="C184" s="2" t="n">
+      <c r="C184" s="1" t="n">
         <v>6631</v>
       </c>
       <c r="E184" t="inlineStr">
@@ -3541,7 +3540,7 @@
       <c r="B185" t="n">
         <v>-27.75775329</v>
       </c>
-      <c r="C185" s="2" t="n">
+      <c r="C185" s="1" t="n">
         <v>6633</v>
       </c>
       <c r="E185" t="inlineStr">
@@ -3557,7 +3556,7 @@
       <c r="B186" t="n">
         <v>-27.75778563</v>
       </c>
-      <c r="C186" s="2" t="n">
+      <c r="C186" s="1" t="n">
         <v>6636</v>
       </c>
       <c r="E186" t="inlineStr">
@@ -3573,7 +3572,7 @@
       <c r="B187" t="n">
         <v>-27.75796987</v>
       </c>
-      <c r="C187" s="2" t="n">
+      <c r="C187" s="1" t="n">
         <v>6653</v>
       </c>
       <c r="E187" t="inlineStr">
@@ -3589,7 +3588,7 @@
       <c r="B188" t="n">
         <v>-27.75816806</v>
       </c>
-      <c r="C188" s="2" t="n">
+      <c r="C188" s="1" t="n">
         <v>6667</v>
       </c>
       <c r="E188" t="inlineStr">
@@ -3605,7 +3604,7 @@
       <c r="B189" t="n">
         <v>-27.75830158</v>
       </c>
-      <c r="C189" s="2" t="n">
+      <c r="C189" s="1" t="n">
         <v>6687</v>
       </c>
       <c r="E189" t="inlineStr">
@@ -3621,7 +3620,7 @@
       <c r="B190" t="n">
         <v>-27.7574827</v>
       </c>
-      <c r="C190" s="2" t="n">
+      <c r="C190" s="1" t="n">
         <v>6693</v>
       </c>
       <c r="E190" t="inlineStr">
@@ -3637,7 +3636,7 @@
       <c r="B191" t="n">
         <v>-27.7586039</v>
       </c>
-      <c r="C191" s="2" t="n">
+      <c r="C191" s="1" t="n">
         <v>67</v>
       </c>
       <c r="E191" t="inlineStr">
@@ -3653,7 +3652,7 @@
       <c r="B192" t="n">
         <v>-27.75545181</v>
       </c>
-      <c r="C192" s="2" t="n">
+      <c r="C192" s="1" t="n">
         <v>67</v>
       </c>
       <c r="D192" t="n">
@@ -3672,7 +3671,7 @@
       <c r="B193" t="n">
         <v>-27.75221772</v>
       </c>
-      <c r="C193" s="2" t="n">
+      <c r="C193" s="1" t="n">
         <v>67</v>
       </c>
       <c r="D193" t="n">
@@ -3691,7 +3690,7 @@
       <c r="B194" t="n">
         <v>-27.75844488</v>
       </c>
-      <c r="C194" s="2" t="n">
+      <c r="C194" s="1" t="n">
         <v>6708</v>
       </c>
       <c r="E194" t="inlineStr">
@@ -3707,7 +3706,7 @@
       <c r="B195" t="n">
         <v>-27.75856652</v>
       </c>
-      <c r="C195" s="2" t="n">
+      <c r="C195" s="1" t="n">
         <v>6724</v>
       </c>
       <c r="D195" t="n">
@@ -3726,7 +3725,7 @@
       <c r="B196" t="n">
         <v>-27.75899079</v>
       </c>
-      <c r="C196" s="2" t="n">
+      <c r="C196" s="1" t="n">
         <v>6772</v>
       </c>
       <c r="D196" t="n">
@@ -3745,7 +3744,7 @@
       <c r="B197" t="n">
         <v>-27.75905933</v>
       </c>
-      <c r="C197" s="2" t="n">
+      <c r="C197" s="1" t="n">
         <v>6782</v>
       </c>
       <c r="E197" t="inlineStr">
@@ -3761,7 +3760,7 @@
       <c r="B198" t="n">
         <v>-27.75914566</v>
       </c>
-      <c r="C198" s="2" t="n">
+      <c r="C198" s="1" t="n">
         <v>6792</v>
       </c>
       <c r="D198" t="n">
@@ -3780,7 +3779,7 @@
       <c r="B199" t="n">
         <v>-27.75926167</v>
       </c>
-      <c r="C199" s="2" t="n">
+      <c r="C199" s="1" t="n">
         <v>6795</v>
       </c>
       <c r="D199" t="n">
@@ -3799,7 +3798,7 @@
       <c r="B200" t="n">
         <v>-27.75821642</v>
       </c>
-      <c r="C200" s="2" t="n">
+      <c r="C200" s="1" t="n">
         <v>68</v>
       </c>
       <c r="E200" t="inlineStr">
@@ -3815,7 +3814,7 @@
       <c r="B201" t="n">
         <v>-27.75734147</v>
       </c>
-      <c r="C201" s="2" t="n">
+      <c r="C201" s="1" t="n">
         <v>68</v>
       </c>
       <c r="E201" t="inlineStr">
@@ -3831,7 +3830,7 @@
       <c r="B202" t="n">
         <v>-27.7530847</v>
       </c>
-      <c r="C202" s="2" t="n">
+      <c r="C202" s="1" t="n">
         <v>68</v>
       </c>
       <c r="E202" t="inlineStr">
@@ -3847,7 +3846,7 @@
       <c r="B203" t="n">
         <v>-27.75926582</v>
       </c>
-      <c r="C203" s="2" t="n">
+      <c r="C203" s="1" t="n">
         <v>6800</v>
       </c>
       <c r="E203" t="inlineStr">
@@ -3863,7 +3862,7 @@
       <c r="B204" t="n">
         <v>-27.75547346</v>
       </c>
-      <c r="C204" s="2" t="n">
+      <c r="C204" s="1" t="n">
         <v>69</v>
       </c>
       <c r="E204" t="inlineStr">
@@ -3879,7 +3878,7 @@
       <c r="B205" t="n">
         <v>-27.75828496</v>
       </c>
-      <c r="C205" s="2" t="n">
+      <c r="C205" s="1" t="n">
         <v>7</v>
       </c>
       <c r="E205" t="inlineStr">
@@ -3895,7 +3894,7 @@
       <c r="B206" t="n">
         <v>-27.75752483</v>
       </c>
-      <c r="C206" s="2" t="n">
+      <c r="C206" s="1" t="n">
         <v>70</v>
       </c>
       <c r="E206" t="inlineStr">
@@ -3911,7 +3910,7 @@
       <c r="B207" t="n">
         <v>-27.75206017</v>
       </c>
-      <c r="C207" s="2" t="n">
+      <c r="C207" s="1" t="n">
         <v>70</v>
       </c>
       <c r="E207" t="inlineStr">
@@ -3927,7 +3926,7 @@
       <c r="B208" t="n">
         <v>-27.75548474</v>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" s="1" t="inlineStr">
         <is>
           <t>71</t>
         </is>
@@ -3945,7 +3944,7 @@
       <c r="B209" t="n">
         <v>-27.75309183</v>
       </c>
-      <c r="C209" s="2" t="n">
+      <c r="C209" s="1" t="n">
         <v>72</v>
       </c>
       <c r="E209" t="inlineStr">
@@ -3961,7 +3960,7 @@
       <c r="B210" t="n">
         <v>-27.75170323</v>
       </c>
-      <c r="C210" s="2" t="n">
+      <c r="C210" s="1" t="n">
         <v>72</v>
       </c>
       <c r="D210" t="n">
@@ -3980,7 +3979,7 @@
       <c r="B211" t="n">
         <v>-27.7569051391289</v>
       </c>
-      <c r="C211" s="2" t="n">
+      <c r="C211" s="1" t="n">
         <v>73</v>
       </c>
       <c r="E211" t="inlineStr">
@@ -3996,7 +3995,7 @@
       <c r="B212" t="n">
         <v>-27.75687418</v>
       </c>
-      <c r="C212" s="2" t="n">
+      <c r="C212" s="1" t="n">
         <v>74</v>
       </c>
       <c r="E212" t="inlineStr">
@@ -4012,7 +4011,7 @@
       <c r="B213" t="n">
         <v>-27.75755064</v>
       </c>
-      <c r="C213" s="2" t="n">
+      <c r="C213" s="1" t="n">
         <v>74</v>
       </c>
       <c r="D213" t="n">
@@ -4031,7 +4030,7 @@
       <c r="B214" t="n">
         <v>-27.75520436</v>
       </c>
-      <c r="C214" s="2" t="n">
+      <c r="C214" s="1" t="n">
         <v>75</v>
       </c>
       <c r="E214" t="inlineStr">
@@ -4047,7 +4046,7 @@
       <c r="B215" t="n">
         <v>-27.75739874</v>
       </c>
-      <c r="C215" s="2" t="n">
+      <c r="C215" s="1" t="n">
         <v>75</v>
       </c>
       <c r="D215" t="n">
@@ -4066,7 +4065,7 @@
       <c r="B216" t="n">
         <v>-27.75764143</v>
       </c>
-      <c r="C216" s="2" t="n">
+      <c r="C216" s="1" t="n">
         <v>76</v>
       </c>
       <c r="E216" t="inlineStr">
@@ -4082,7 +4081,7 @@
       <c r="B217" t="n">
         <v>-27.75556633</v>
       </c>
-      <c r="C217" s="2" t="n">
+      <c r="C217" s="1" t="n">
         <v>76</v>
       </c>
       <c r="E217" t="inlineStr">
@@ -4098,7 +4097,7 @@
       <c r="B218" t="n">
         <v>-27.75862408</v>
       </c>
-      <c r="C218" s="2" t="n">
+      <c r="C218" s="1" t="n">
         <v>77</v>
       </c>
       <c r="E218" t="inlineStr">
@@ -4114,7 +4113,7 @@
       <c r="B219" t="n">
         <v>-27.75700472</v>
       </c>
-      <c r="C219" s="2" t="n">
+      <c r="C219" s="1" t="n">
         <v>77</v>
       </c>
       <c r="E219" t="inlineStr">
@@ -4130,7 +4129,7 @@
       <c r="B220" t="n">
         <v>-27.75654277</v>
       </c>
-      <c r="C220" s="2" t="n">
+      <c r="C220" s="1" t="n">
         <v>77</v>
       </c>
       <c r="E220" t="inlineStr">
@@ -4146,7 +4145,7 @@
       <c r="B221" t="n">
         <v>-27.75185158</v>
       </c>
-      <c r="C221" s="2" t="n">
+      <c r="C221" s="1" t="n">
         <v>77</v>
       </c>
       <c r="E221" t="inlineStr">
@@ -4162,7 +4161,7 @@
       <c r="B222" t="n">
         <v>-27.7586585</v>
       </c>
-      <c r="C222" s="2" t="n">
+      <c r="C222" s="1" t="n">
         <v>79</v>
       </c>
       <c r="E222" t="inlineStr">
@@ -4178,7 +4177,7 @@
       <c r="B223" t="n">
         <v>-27.75329685</v>
       </c>
-      <c r="C223" s="2" t="n">
+      <c r="C223" s="1" t="n">
         <v>79</v>
       </c>
       <c r="E223" t="inlineStr">
@@ -4194,7 +4193,7 @@
       <c r="B224" t="n">
         <v>-27.75819091</v>
       </c>
-      <c r="C224" s="2" t="n">
+      <c r="C224" s="1" t="n">
         <v>8</v>
       </c>
       <c r="E224" t="inlineStr">
@@ -4210,7 +4209,7 @@
       <c r="B225" t="n">
         <v>-27.75234323</v>
       </c>
-      <c r="C225" s="2" t="n">
+      <c r="C225" s="1" t="n">
         <v>80</v>
       </c>
       <c r="E225" t="inlineStr">
@@ -4226,7 +4225,7 @@
       <c r="B226" t="n">
         <v>-27.75866799</v>
       </c>
-      <c r="C226" s="2" t="n">
+      <c r="C226" s="1" t="n">
         <v>80</v>
       </c>
       <c r="D226" t="n">
@@ -4245,7 +4244,7 @@
       <c r="B227" t="n">
         <v>-27.75220259</v>
       </c>
-      <c r="C227" s="2" t="n">
+      <c r="C227" s="1" t="n">
         <v>81</v>
       </c>
       <c r="E227" t="inlineStr">
@@ -4261,7 +4260,7 @@
       <c r="B228" t="n">
         <v>-27.75310933</v>
       </c>
-      <c r="C228" s="2" t="n">
+      <c r="C228" s="1" t="n">
         <v>84</v>
       </c>
       <c r="D228" t="n">
@@ -4280,7 +4279,7 @@
       <c r="B229" t="n">
         <v>-27.75695636</v>
       </c>
-      <c r="C229" s="2" t="n">
+      <c r="C229" s="1" t="n">
         <v>85</v>
       </c>
       <c r="E229" t="inlineStr">
@@ -4296,7 +4295,7 @@
       <c r="B230" t="n">
         <v>-27.75548385</v>
       </c>
-      <c r="C230" s="2" t="n">
+      <c r="C230" s="1" t="n">
         <v>85</v>
       </c>
       <c r="E230" t="inlineStr">
@@ -4312,7 +4311,7 @@
       <c r="B231" t="n">
         <v>-27.75696645</v>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" s="1" t="inlineStr">
         <is>
           <t>85</t>
         </is>
@@ -4330,7 +4329,7 @@
       <c r="B232" t="n">
         <v>-27.75722547</v>
       </c>
-      <c r="C232" s="2" t="n">
+      <c r="C232" s="1" t="n">
         <v>86</v>
       </c>
       <c r="E232" t="inlineStr">
@@ -4346,7 +4345,7 @@
       <c r="B233" t="n">
         <v>-27.75558829</v>
       </c>
-      <c r="C233" s="2" t="n">
+      <c r="C233" s="1" t="n">
         <v>86</v>
       </c>
       <c r="E233" t="inlineStr">
@@ -4362,7 +4361,7 @@
       <c r="B234" t="n">
         <v>-27.75141868</v>
       </c>
-      <c r="C234" s="2" t="n">
+      <c r="C234" s="1" t="n">
         <v>86</v>
       </c>
       <c r="E234" t="inlineStr">
@@ -4378,7 +4377,7 @@
       <c r="B235" t="n">
         <v>-27.75517142</v>
       </c>
-      <c r="C235" s="2" t="n">
+      <c r="C235" s="1" t="n">
         <v>87</v>
       </c>
       <c r="E235" t="inlineStr">
@@ -4394,7 +4393,7 @@
       <c r="B236" t="n">
         <v>-27.75236697</v>
       </c>
-      <c r="C236" s="2" t="n">
+      <c r="C236" s="1" t="n">
         <v>88</v>
       </c>
       <c r="E236" t="inlineStr">
@@ -4410,7 +4409,7 @@
       <c r="B237" t="n">
         <v>-27.75737886</v>
       </c>
-      <c r="C237" s="2" t="n">
+      <c r="C237" s="1" t="n">
         <v>89</v>
       </c>
       <c r="E237" t="inlineStr">
@@ -4426,7 +4425,7 @@
       <c r="B238" t="n">
         <v>-27.75815768</v>
       </c>
-      <c r="C238" s="2" t="n">
+      <c r="C238" s="1" t="n">
         <v>9</v>
       </c>
       <c r="D238" t="n">
@@ -4445,7 +4444,7 @@
       <c r="B239" t="n">
         <v>-27.75304049</v>
       </c>
-      <c r="C239" s="2" t="n">
+      <c r="C239" s="1" t="n">
         <v>90</v>
       </c>
       <c r="E239" t="inlineStr">
@@ -4461,7 +4460,7 @@
       <c r="B240" t="n">
         <v>-27.75198214</v>
       </c>
-      <c r="C240" s="2" t="n">
+      <c r="C240" s="1" t="n">
         <v>90</v>
       </c>
       <c r="E240" t="inlineStr">
@@ -4477,7 +4476,7 @@
       <c r="B241" t="n">
         <v>-27.75166881</v>
       </c>
-      <c r="C241" s="2" t="n">
+      <c r="C241" s="1" t="n">
         <v>90</v>
       </c>
       <c r="E241" t="inlineStr">
@@ -4493,7 +4492,7 @@
       <c r="B242" t="n">
         <v>-27.75215571</v>
       </c>
-      <c r="C242" s="2" t="n">
+      <c r="C242" s="1" t="n">
         <v>91</v>
       </c>
       <c r="E242" t="inlineStr">
@@ -4509,7 +4508,7 @@
       <c r="B243" t="n">
         <v>-27.75550313</v>
       </c>
-      <c r="C243" s="2" t="n">
+      <c r="C243" s="1" t="n">
         <v>93</v>
       </c>
       <c r="E243" t="inlineStr">
@@ -4525,7 +4524,7 @@
       <c r="B244" t="n">
         <v>-27.75214325</v>
       </c>
-      <c r="C244" s="2" t="n">
+      <c r="C244" s="1" t="n">
         <v>93</v>
       </c>
       <c r="D244" t="n">
@@ -4544,7 +4543,7 @@
       <c r="B245" t="n">
         <v>-27.75233374</v>
       </c>
-      <c r="C245" s="2" t="n">
+      <c r="C245" s="1" t="n">
         <v>94</v>
       </c>
       <c r="E245" t="inlineStr">
@@ -4560,7 +4559,7 @@
       <c r="B246" t="n">
         <v>-27.75331317</v>
       </c>
-      <c r="C246" s="2" t="n">
+      <c r="C246" s="1" t="n">
         <v>95</v>
       </c>
       <c r="E246" t="inlineStr">
@@ -4576,7 +4575,7 @@
       <c r="B247" t="n">
         <v>-27.75184387</v>
       </c>
-      <c r="C247" s="2" t="n">
+      <c r="C247" s="1" t="n">
         <v>97</v>
       </c>
       <c r="E247" t="inlineStr">
@@ -4592,7 +4591,7 @@
       <c r="B248" t="n">
         <v>-27.75286455</v>
       </c>
-      <c r="C248" s="2" t="n">
+      <c r="C248" s="1" t="n">
         <v>98</v>
       </c>
       <c r="E248" t="inlineStr">
@@ -4608,7 +4607,7 @@
       <c r="B249" t="n">
         <v>-27.75140681</v>
       </c>
-      <c r="C249" s="2" t="n">
+      <c r="C249" s="1" t="n">
         <v>98</v>
       </c>
       <c r="D249" t="n">
@@ -4627,7 +4626,7 @@
       <c r="B250" t="n">
         <v>-27.75869173</v>
       </c>
-      <c r="C250" s="2" t="n">
+      <c r="C250" s="1" t="n">
         <v>99</v>
       </c>
       <c r="E250" t="inlineStr">
@@ -4643,7 +4642,7 @@
       <c r="B251" t="n">
         <v>-27.7566485431929</v>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4661,7 +4660,7 @@
       <c r="B252" t="n">
         <v>-27.7566297147911</v>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4679,7 +4678,7 @@
       <c r="B253" t="n">
         <v>-27.7566365472295</v>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4697,7 +4696,7 @@
       <c r="B254" t="n">
         <v>-27.75885313</v>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4715,7 +4714,7 @@
       <c r="B255" t="n">
         <v>-27.75895103</v>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4733,7 +4732,7 @@
       <c r="B256" t="n">
         <v>-27.75807431</v>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4751,7 +4750,7 @@
       <c r="B257" t="n">
         <v>-27.75786692</v>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4769,7 +4768,7 @@
       <c r="B258" t="n">
         <v>-27.7580034</v>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4787,7 +4786,7 @@
       <c r="B259" t="n">
         <v>-27.75803336</v>
       </c>
-      <c r="C259" s="2" t="inlineStr">
+      <c r="C259" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4805,7 +4804,7 @@
       <c r="B260" t="n">
         <v>-27.75810902</v>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4823,7 +4822,7 @@
       <c r="B261" t="n">
         <v>-27.75826805</v>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4841,7 +4840,7 @@
       <c r="B262" t="n">
         <v>-27.75747232</v>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4859,7 +4858,7 @@
       <c r="B263" t="n">
         <v>-27.7552907</v>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4877,7 +4876,7 @@
       <c r="B264" t="n">
         <v>-27.75508716</v>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4895,7 +4894,7 @@
       <c r="B265" t="n">
         <v>-27.75279423</v>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4913,7 +4912,7 @@
       <c r="B266" t="n">
         <v>-27.75357368</v>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4931,7 +4930,7 @@
       <c r="B267" t="n">
         <v>-27.75351671</v>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4949,7 +4948,7 @@
       <c r="B268" t="n">
         <v>-27.75371758</v>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4967,7 +4966,7 @@
       <c r="B269" t="n">
         <v>-27.75171806</v>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -4985,7 +4984,7 @@
       <c r="B270" t="n">
         <v>-27.7519946</v>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -5003,7 +5002,7 @@
       <c r="B271" t="n">
         <v>-27.75147506</v>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -5021,7 +5020,7 @@
       <c r="B272" t="n">
         <v>-27.75146408</v>
       </c>
-      <c r="C272" s="2" t="inlineStr">
+      <c r="C272" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -5039,7 +5038,7 @@
       <c r="B273" t="n">
         <v>-27.75134718</v>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" s="1" t="inlineStr">
         <is>
           <t>Lv</t>
         </is>
@@ -5057,7 +5056,7 @@
       <c r="B274" t="n">
         <v>-27.75502782</v>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" s="1" t="inlineStr">
         <is>
           <t>sn</t>
         </is>
@@ -5075,7 +5074,7 @@
       <c r="B275" t="n">
         <v>-27.75657095</v>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5093,7 +5092,7 @@
       <c r="B276" t="n">
         <v>-27.75821316</v>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5111,7 +5110,7 @@
       <c r="B277" t="n">
         <v>-27.75820159</v>
       </c>
-      <c r="C277" s="2" t="inlineStr">
+      <c r="C277" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5129,7 +5128,7 @@
       <c r="B278" t="n">
         <v>-27.75826479</v>
       </c>
-      <c r="C278" s="2" t="inlineStr">
+      <c r="C278" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5147,7 +5146,7 @@
       <c r="B279" t="n">
         <v>-27.7573032</v>
       </c>
-      <c r="C279" s="2" t="inlineStr">
+      <c r="C279" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5165,7 +5164,7 @@
       <c r="B280" t="n">
         <v>-27.75714091</v>
       </c>
-      <c r="C280" s="2" t="inlineStr">
+      <c r="C280" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5183,7 +5182,7 @@
       <c r="B281" t="n">
         <v>-27.75758565</v>
       </c>
-      <c r="C281" s="2" t="inlineStr">
+      <c r="C281" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5201,7 +5200,7 @@
       <c r="B282" t="n">
         <v>-27.75770759</v>
       </c>
-      <c r="C282" s="2" t="inlineStr">
+      <c r="C282" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5219,7 +5218,7 @@
       <c r="B283" t="n">
         <v>-27.75742306</v>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C283" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5237,7 +5236,7 @@
       <c r="B284" t="n">
         <v>-27.75779927</v>
       </c>
-      <c r="C284" s="2" t="inlineStr">
+      <c r="C284" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5255,7 +5254,7 @@
       <c r="B285" t="n">
         <v>-27.75730083</v>
       </c>
-      <c r="C285" s="2" t="inlineStr">
+      <c r="C285" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5273,7 +5272,7 @@
       <c r="B286" t="n">
         <v>-27.75686172</v>
       </c>
-      <c r="C286" s="2" t="inlineStr">
+      <c r="C286" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5291,7 +5290,7 @@
       <c r="B287" t="n">
         <v>-27.75692195</v>
       </c>
-      <c r="C287" s="2" t="inlineStr">
+      <c r="C287" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5309,7 +5308,7 @@
       <c r="B288" t="n">
         <v>-27.75671901</v>
       </c>
-      <c r="C288" s="2" t="inlineStr">
+      <c r="C288" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5327,7 +5326,7 @@
       <c r="B289" t="n">
         <v>-27.75668311</v>
       </c>
-      <c r="C289" s="2" t="inlineStr">
+      <c r="C289" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5345,7 +5344,7 @@
       <c r="B290" t="n">
         <v>-27.75667153</v>
       </c>
-      <c r="C290" s="2" t="inlineStr">
+      <c r="C290" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5363,7 +5362,7 @@
       <c r="B291" t="n">
         <v>-27.75613392</v>
       </c>
-      <c r="C291" s="2" t="inlineStr">
+      <c r="C291" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5381,7 +5380,7 @@
       <c r="B292" t="n">
         <v>-27.75584345</v>
       </c>
-      <c r="C292" s="2" t="inlineStr">
+      <c r="C292" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5399,7 +5398,7 @@
       <c r="B293" t="n">
         <v>-27.75582921</v>
       </c>
-      <c r="C293" s="2" t="inlineStr">
+      <c r="C293" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5417,7 +5416,7 @@
       <c r="B294" t="n">
         <v>-27.75542926</v>
       </c>
-      <c r="C294" s="2" t="inlineStr">
+      <c r="C294" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5435,7 +5434,7 @@
       <c r="B295" t="n">
         <v>-27.75553726</v>
       </c>
-      <c r="C295" s="2" t="inlineStr">
+      <c r="C295" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5453,7 +5452,7 @@
       <c r="B296" t="n">
         <v>-27.75489875</v>
       </c>
-      <c r="C296" s="2" t="inlineStr">
+      <c r="C296" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5471,7 +5470,7 @@
       <c r="B297" t="n">
         <v>-27.75403624</v>
       </c>
-      <c r="C297" s="2" t="inlineStr">
+      <c r="C297" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5489,7 +5488,7 @@
       <c r="B298" t="n">
         <v>-27.75333008</v>
       </c>
-      <c r="C298" s="2" t="inlineStr">
+      <c r="C298" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5507,7 +5506,7 @@
       <c r="B299" t="n">
         <v>-27.75296009</v>
       </c>
-      <c r="C299" s="2" t="inlineStr">
+      <c r="C299" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5525,7 +5524,7 @@
       <c r="B300" t="n">
         <v>-27.75276723</v>
       </c>
-      <c r="C300" s="2" t="inlineStr">
+      <c r="C300" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5543,7 +5542,7 @@
       <c r="B301" t="n">
         <v>-27.75319805</v>
       </c>
-      <c r="C301" s="2" t="inlineStr">
+      <c r="C301" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5561,7 +5560,7 @@
       <c r="B302" t="n">
         <v>-27.75309628</v>
       </c>
-      <c r="C302" s="2" t="inlineStr">
+      <c r="C302" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5579,7 +5578,7 @@
       <c r="B303" t="n">
         <v>-27.75320368</v>
       </c>
-      <c r="C303" s="2" t="inlineStr">
+      <c r="C303" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5597,7 +5596,7 @@
       <c r="B304" t="n">
         <v>-27.75365646</v>
       </c>
-      <c r="C304" s="2" t="inlineStr">
+      <c r="C304" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5615,7 +5614,7 @@
       <c r="B305" t="n">
         <v>-27.75256161</v>
       </c>
-      <c r="C305" s="2" t="inlineStr">
+      <c r="C305" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5633,7 +5632,7 @@
       <c r="B306" t="n">
         <v>-27.75193763</v>
       </c>
-      <c r="C306" s="2" t="inlineStr">
+      <c r="C306" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5651,7 +5650,7 @@
       <c r="B307" t="n">
         <v>-27.75158365</v>
       </c>
-      <c r="C307" s="2" t="inlineStr">
+      <c r="C307" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5669,7 +5668,7 @@
       <c r="B308" t="n">
         <v>-27.75164923</v>
       </c>
-      <c r="C308" s="2" t="inlineStr">
+      <c r="C308" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5687,7 +5686,7 @@
       <c r="B309" t="n">
         <v>-27.7519038</v>
       </c>
-      <c r="C309" s="2" t="inlineStr">
+      <c r="C309" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5705,7 +5704,7 @@
       <c r="B310" t="n">
         <v>-27.75126083</v>
       </c>
-      <c r="C310" s="2" t="inlineStr">
+      <c r="C310" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5723,7 +5722,7 @@
       <c r="B311" t="n">
         <v>-27.75121098</v>
       </c>
-      <c r="C311" s="2" t="inlineStr">
+      <c r="C311" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5741,7 +5740,7 @@
       <c r="B312" t="n">
         <v>-27.75872169</v>
       </c>
-      <c r="C312" s="2" t="inlineStr">
+      <c r="C312" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5762,7 +5761,7 @@
       <c r="B313" t="n">
         <v>-27.75814195</v>
       </c>
-      <c r="C313" s="2" t="inlineStr">
+      <c r="C313" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5783,7 +5782,7 @@
       <c r="B314" t="n">
         <v>-27.75826568</v>
       </c>
-      <c r="C314" s="2" t="inlineStr">
+      <c r="C314" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5804,7 +5803,7 @@
       <c r="B315" t="n">
         <v>-27.75729133</v>
       </c>
-      <c r="C315" s="2" t="inlineStr">
+      <c r="C315" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5825,7 +5824,7 @@
       <c r="B316" t="n">
         <v>-27.75699286</v>
       </c>
-      <c r="C316" s="2" t="inlineStr">
+      <c r="C316" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5846,7 +5845,7 @@
       <c r="B317" t="n">
         <v>-27.7557761</v>
       </c>
-      <c r="C317" s="2" t="inlineStr">
+      <c r="C317" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5867,7 +5866,7 @@
       <c r="B318" t="n">
         <v>-27.7558025</v>
       </c>
-      <c r="C318" s="2" t="inlineStr">
+      <c r="C318" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5888,7 +5887,7 @@
       <c r="B319" t="n">
         <v>-27.75582594</v>
       </c>
-      <c r="C319" s="2" t="inlineStr">
+      <c r="C319" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5909,7 +5908,7 @@
       <c r="B320" t="n">
         <v>-27.75304109</v>
       </c>
-      <c r="C320" s="2" t="inlineStr">
+      <c r="C320" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5930,7 +5929,7 @@
       <c r="B321" t="n">
         <v>-27.75357605</v>
       </c>
-      <c r="C321" s="2" t="inlineStr">
+      <c r="C321" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5951,7 +5950,7 @@
       <c r="B322" t="n">
         <v>-27.75813394</v>
       </c>
-      <c r="C322" s="2" t="inlineStr">
+      <c r="C322" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5969,7 +5968,7 @@
       <c r="B323" t="n">
         <v>-27.75846654</v>
       </c>
-      <c r="C323" s="2" t="inlineStr">
+      <c r="C323" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -5990,7 +5989,7 @@
       <c r="B324" t="n">
         <v>-27.75573545</v>
       </c>
-      <c r="C324" s="2" t="inlineStr">
+      <c r="C324" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -6008,7 +6007,7 @@
       <c r="B325" t="n">
         <v>-27.75255063</v>
       </c>
-      <c r="C325" s="2" t="inlineStr">
+      <c r="C325" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -6026,7 +6025,7 @@
       <c r="B326" t="n">
         <v>-27.75865108</v>
       </c>
-      <c r="C326" s="2" t="inlineStr">
+      <c r="C326" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -6044,7 +6043,7 @@
       <c r="B327" t="n">
         <v>-27.75853359</v>
       </c>
-      <c r="C327" s="2" t="inlineStr">
+      <c r="C327" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -6062,7 +6061,7 @@
       <c r="B328" t="n">
         <v>-27.75835409</v>
       </c>
-      <c r="C328" s="2" t="inlineStr">
+      <c r="C328" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
@@ -6080,7 +6079,7 @@
       <c r="B329" t="n">
         <v>-27.7584425</v>
       </c>
-      <c r="C329" s="2" t="inlineStr">
+      <c r="C329" s="1" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>

--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -419,7 +419,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col width="12.5703125" bestFit="1" customWidth="1" min="1" max="2"/>
     <col width="19.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066523</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066350</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066521</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066509</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066350</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066521</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066521</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066552</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066523</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066521</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066520</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066521</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066521</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066521</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066521</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066521</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066525</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066525</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066521</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066521</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066525</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066525</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066521</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066445</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066445</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066523</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066260</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066445</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066552</t>
         </is>
       </c>
     </row>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066523</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066445</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066525</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066445</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066552</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066350</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066525</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066511</t>
         </is>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066350</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066523</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066511</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066350</t>
         </is>
       </c>
     </row>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066523</t>
         </is>
       </c>
     </row>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066511</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066525</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066511</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066511</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066543</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88010102</t>
         </is>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066523</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066510</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066515</t>
         </is>
       </c>
     </row>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066511</t>
         </is>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>88066355</t>
+          <t>88066511</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>Tem que usar o CEP padrão</t>
         </is>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066550</t>
         </is>
       </c>
     </row>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066545</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066523</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066524</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066552</t>
         </is>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88056398</t>
         </is>
       </c>
     </row>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>88066260</t>
+          <t>88066000</t>
         </is>
       </c>
     </row>

--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klayton.dias\Desktop\Tux.exe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752A438B-8AEC-4711-8676-EA45FA601C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SELECT" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SELECT!$A$1:$AMJ$329</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SELECT!$A$1:$AMJ$315</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -429,11 +430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K313"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -525,7 +526,7 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -546,14 +547,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G5" s="2"/>
-    </row>
-    <row r="313" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G313" s="2"/>
+    <row r="299" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G299" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AMJ329"/>
+  <autoFilter ref="A1:AMJ315" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klayton.dias\Desktop\Tux.exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752A438B-8AEC-4711-8676-EA45FA601C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="SELECT" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>x</t>
   </si>
@@ -86,12 +85,15 @@
   </si>
   <si>
     <t>Armação do Pântano do Sul</t>
+  </si>
+  <si>
+    <t>sim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -430,18 +432,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.140625" bestFit="1" customWidth="1"/>
@@ -528,6 +530,9 @@
       <c r="D3">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
@@ -551,7 +556,7 @@
       <c r="G299" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AMJ315" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AMJ315"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klayton.dias\Desktop\Tux.exe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F65B74-4A37-49B6-9AF0-1F948CC822FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SELECT" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>x</t>
   </si>
@@ -85,15 +86,12 @@
   </si>
   <si>
     <t>Armação do Pântano do Sul</t>
-  </si>
-  <si>
-    <t>sim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -432,11 +430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -530,9 +528,6 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
@@ -556,7 +551,7 @@
       <c r="G299" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AMJ315"/>
+  <autoFilter ref="A1:AMJ315" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F65B74-4A37-49B6-9AF0-1F948CC822FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E798BAEF-B3C5-41DD-8701-211C245CF73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>x</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Armação do Pântano do Sul</t>
+  </si>
+  <si>
+    <t>sim</t>
   </si>
 </sst>
 </file>
@@ -528,6 +531,9 @@
       <c r="D3">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>

--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E798BAEF-B3C5-41DD-8701-211C245CF73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E91C01E-59E0-48D2-96CD-DA4B3190E64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>x</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Armação do Pântano do Sul</t>
-  </si>
-  <si>
-    <t>sim</t>
   </si>
 </sst>
 </file>
@@ -531,9 +528,6 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>

--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -1,113 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E91C01E-59E0-48D2-96CD-DA4B3190E64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SELECT" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SELECT" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SELECT!$A$1:$AMJ$315</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SELECT'!$A$1:$AMJ$315</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>NUMERO</t>
-  </si>
-  <si>
-    <t>QUANTIDADE</t>
-  </si>
-  <si>
-    <t>PREDIO</t>
-  </si>
-  <si>
-    <t>CEP GEOPY</t>
-  </si>
-  <si>
-    <t>CEP GOOGLE MAPS</t>
-  </si>
-  <si>
-    <t>LOGRADOURO</t>
-  </si>
-  <si>
-    <t>BAIRRO</t>
-  </si>
-  <si>
-    <t>CIDADE</t>
-  </si>
-  <si>
-    <t>UF</t>
-  </si>
-  <si>
-    <t>88066260</t>
-  </si>
-  <si>
-    <t>88056398</t>
-  </si>
-  <si>
-    <t>Servidão Oliveira</t>
-  </si>
-  <si>
-    <t>Cachoeira do Bom Jesus</t>
-  </si>
-  <si>
-    <t>Florianópolis</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>88066355</t>
-  </si>
-  <si>
-    <t>88066515</t>
-  </si>
-  <si>
-    <t>Servidão Ana Maria da Silva</t>
-  </si>
-  <si>
-    <t>Armação do Pântano do Sul</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,23 +52,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,129 +415,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K2" sqref="F2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="1024" width="15" customWidth="1"/>
+    <col width="12.5703125" bestFit="1" customWidth="1" min="1" max="2"/>
+    <col width="8.140625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="14.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="34.140625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="24.7109375" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="3.5703125" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUMERO</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>QUANTIDADE</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PREDIO</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>CEP GEOPY</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CEP GOOGLE MAPS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>LOGRADOURO</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BAIRRO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>CIDADE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>UF</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-48.508915790000003</v>
-      </c>
-      <c r="B2">
-        <v>-27.758700919999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-51.1736326783297</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-29.8556670862479</v>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>93265350</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-48.51068471</v>
-      </c>
-      <c r="B3">
-        <v>-27.75198125</v>
-      </c>
-      <c r="C3" s="1">
-        <v>102</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="299" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G299" s="2"/>
+    <row r="299">
+      <c r="G299" s="2" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AMJ315" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AMJ315"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -1,39 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA6A52F-0DFF-4C90-8BB1-3330F106A284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SELECT" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="SELECT" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SELECT'!$A$1:$AMJ$315</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SELECT!$A$1:$AMJ$315</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>NUMERO</t>
+  </si>
+  <si>
+    <t>QUANTIDADE</t>
+  </si>
+  <si>
+    <t>PREDIO</t>
+  </si>
+  <si>
+    <t>CEP GEOPY</t>
+  </si>
+  <si>
+    <t>CEP GOOGLE MAPS</t>
+  </si>
+  <si>
+    <t>LOGRADOURO</t>
+  </si>
+  <si>
+    <t>BAIRRO</t>
+  </si>
+  <si>
+    <t>CIDADE</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>93265350</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,82 +102,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,112 +406,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="F2:K2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="12.5703125" bestFit="1" customWidth="1" min="1" max="2"/>
-    <col width="8.140625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="15.140625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="14.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="34.140625" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="24.7109375" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="11.42578125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="3.5703125" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="1024"/>
+    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="1024" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUMERO</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>QUANTIDADE</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>PREDIO</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>CEP GEOPY</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>CEP GOOGLE MAPS</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>LOGRADOURO</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>BAIRRO</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>CIDADE</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>UF</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>-51.1736326783297</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-29.8556670862479</v>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>93265350</t>
-        </is>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-51.173632678329703</v>
+      </c>
+      <c r="B2">
+        <v>-29.855667086247902</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="299">
-      <c r="G299" s="2" t="n"/>
+    <row r="299" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G299" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AMJ315"/>
+  <autoFilter ref="A1:AMJ315" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA6A52F-0DFF-4C90-8BB1-3330F106A284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D194C074-7A17-49F0-8460-D2F8870E0E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>93265350</t>
+  </si>
+  <si>
+    <t>sim</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <dimension ref="A1:K299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -472,10 +475,44 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-51.173632678329703</v>
+      </c>
+      <c r="B3">
+        <v>-29.855667086247902</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-51.173632678329703</v>
+      </c>
+      <c r="B4">
+        <v>-29.855667086247902</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D194C074-7A17-49F0-8460-D2F8870E0E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DBFC27-B577-4028-9DE7-A411F895C2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>x</t>
   </si>
@@ -58,13 +58,37 @@
     <t>UF</t>
   </si>
   <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t>93265350</t>
-  </si>
-  <si>
     <t>sim</t>
+  </si>
+  <si>
+    <t>88066260</t>
+  </si>
+  <si>
+    <t>88056398</t>
+  </si>
+  <si>
+    <t>Servidão Oliveira</t>
+  </si>
+  <si>
+    <t>Cachoeira do Bom Jesus</t>
+  </si>
+  <si>
+    <t>Florianópolis</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>88066355</t>
+  </si>
+  <si>
+    <t>88066515</t>
+  </si>
+  <si>
+    <t>Servidão Ana Maria da Silva</t>
+  </si>
+  <si>
+    <t>Armação do Pântano do Sul</t>
   </si>
 </sst>
 </file>
@@ -413,7 +437,7 @@
   <dimension ref="A1:K299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -467,54 +491,102 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-51.173632678329703</v>
+        <v>-48.508915790000003</v>
       </c>
       <c r="B2">
-        <v>-29.855667086247902</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>-27.758700919999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-51.173632678329703</v>
+        <v>-48.51068471</v>
       </c>
       <c r="B3">
-        <v>-29.855667086247902</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>-27.75198125</v>
+      </c>
+      <c r="C3" s="1">
+        <v>102</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-51.173632678329703</v>
+        <v>-48.508803139999998</v>
       </c>
       <c r="B4">
-        <v>-29.855667086247902</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>-27.758743939999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E7" s="2"/>
     </row>
     <row r="299" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G299" s="2"/>
@@ -522,6 +594,6 @@
   </sheetData>
   <autoFilter ref="A1:AMJ315" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DBFC27-B577-4028-9DE7-A411F895C2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EB54FB-2E5A-4FFD-A69A-47A7B25F5ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SELECT" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SELECT!$A$1:$AMJ$315</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SELECT!$A$1:$AMJ$313</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>x</t>
   </si>
@@ -77,18 +77,6 @@
   </si>
   <si>
     <t>SC</t>
-  </si>
-  <si>
-    <t>88066355</t>
-  </si>
-  <si>
-    <t>88066515</t>
-  </si>
-  <si>
-    <t>Servidão Ana Maria da Silva</t>
-  </si>
-  <si>
-    <t>Armação do Pântano do Sul</t>
   </si>
 </sst>
 </file>
@@ -434,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K299"/>
+  <dimension ref="A1:K297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -491,13 +479,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-48.508915790000003</v>
+        <v>-48.508803139999998</v>
       </c>
       <c r="B2">
-        <v>-27.758700919999999</v>
+        <v>-27.758743939999999</v>
       </c>
       <c r="C2" s="1">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -518,81 +512,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-48.51068471</v>
-      </c>
-      <c r="B3">
-        <v>-27.75198125</v>
-      </c>
-      <c r="C3" s="1">
-        <v>102</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E5" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-48.508803139999998</v>
-      </c>
-      <c r="B4">
-        <v>-27.758743939999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>103</v>
-      </c>
-      <c r="D4">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E7" s="2"/>
-    </row>
-    <row r="299" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G299" s="2"/>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G297" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AMJ315" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AMJ313" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/coordenada.xlsx
+++ b/coordenada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF3DEAC-00B3-446E-9D68-6471CA038877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4933097-7B38-4B7D-8946-F34DFDCC3E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:K296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
